--- a/tests/fixtures/matrix_sample.xlsx
+++ b/tests/fixtures/matrix_sample.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="278">
   <si>
     <t xml:space="preserve">Contexte</t>
   </si>
@@ -1195,6 +1195,9 @@
     <t xml:space="preserve">ruminants, chien, chat  </t>
   </si>
   <si>
+    <t xml:space="preserve">CoPrev.1.1bis.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Réaliser un examen comportemental sur un groupe d’animaux </t>
   </si>
   <si>
@@ -1222,7 +1225,7 @@
     <t xml:space="preserve">Juger de l’état d’entretien d’un animal ou d’un groupe d’animaux</t>
   </si>
   <si>
-    <t xml:space="preserve">CoPrev 1.4.</t>
+    <t xml:space="preserve">CoPrev.1.4.</t>
   </si>
   <si>
     <t xml:space="preserve">Réaliser une diagnose de catégorie et une évaluation comportementale dans le cadre de la réglementation liée aux chiens susceptibles d'être dangereux  </t>
@@ -1276,7 +1279,7 @@
     <t xml:space="preserve">chien, chat, cheval, ruminants</t>
   </si>
   <si>
-    <t xml:space="preserve">CoPrev 2.5.</t>
+    <t xml:space="preserve">CoPrev.2.5.</t>
   </si>
   <si>
     <t xml:space="preserve">Conseiller un utilisateur d’animal de sport ou d’utilité sur les éléments de prévention spécifiques  </t>
@@ -1336,7 +1339,7 @@
     <t xml:space="preserve">Appliquer les principes et les méthodes pour éliminer les cadavres, les sous-produits animaux, et les déchets d'activité de soins dans le respect de la réglementation et des règles de biosécurité</t>
   </si>
   <si>
-    <t xml:space="preserve">Coprev 3.4.</t>
+    <t xml:space="preserve">Coprev.3.4.</t>
   </si>
   <si>
     <t xml:space="preserve">Justifier, appliquer et faire appliquer les mesures de biosécurité face à un incident de nature à mettre en jeu la sécurité sanitaire des personnes ou des animaux  </t>
@@ -1462,55 +1465,55 @@
     <t xml:space="preserve">Effectuer un prélèvement biologique </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.01.</t>
+    <t xml:space="preserve">D.3.2bis.01.</t>
   </si>
   <si>
     <t xml:space="preserve">Prélèvement sanguin</t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.02.</t>
+    <t xml:space="preserve">D.3.2bis.02.</t>
   </si>
   <si>
     <t xml:space="preserve">Prélèvement de lait</t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.03.</t>
+    <t xml:space="preserve">D.3.2bis.03.</t>
   </si>
   <si>
     <t xml:space="preserve">Prélèvement de semence</t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.04.</t>
+    <t xml:space="preserve">D.3.2bis.04.</t>
   </si>
   <si>
     <t xml:space="preserve">Prélèvements de matières fécales </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.05.</t>
+    <t xml:space="preserve">D.3.2bis.05.</t>
   </si>
   <si>
     <t xml:space="preserve">Prélèvement d’urine </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.06.</t>
+    <t xml:space="preserve">D.3.2bis.06.</t>
   </si>
   <si>
     <t xml:space="preserve">Écouvillonnages </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.07.</t>
+    <t xml:space="preserve">D.3.2bis.07.</t>
   </si>
   <si>
     <t xml:space="preserve">Raclage cutané </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.08.</t>
+    <t xml:space="preserve">D.3.2bis.08.</t>
   </si>
   <si>
     <t xml:space="preserve">Aspiration transtrachéale et lavage broncho alvéolaire </t>
   </si>
   <si>
-    <t xml:space="preserve"> D.3.2bis.09.</t>
+    <t xml:space="preserve">D.3.2bis.09.</t>
   </si>
   <si>
     <t xml:space="preserve">Cytoponctions superficielles et ponctions de liquides biologiques (articulaire, épanchement abdominal et thoracique) </t>
@@ -1573,7 +1576,10 @@
     <t xml:space="preserve">espèces majeures</t>
   </si>
   <si>
-    <t xml:space="preserve">bis Choisir la technique d'imagerie la plus adaptée au contexte clinique (hypothèses diagnostiques, contexte socio-économique, principe de justification, limites, contre-indications) (radio-écho-scanner-IRM-scintigraphie)  </t>
+    <t xml:space="preserve">D.4.1bis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir la technique d'imagerie la plus adaptée au contexte clinique (hypothèses diagnostiques, contexte socio-économique, principe de justification, limites, contre-indications) (radio-écho-scanner-IRM-scintigraphie)  </t>
   </si>
   <si>
     <t xml:space="preserve">D.4.2.</t>
@@ -1585,10 +1591,16 @@
     <t xml:space="preserve">chien, chat / autres espèces</t>
   </si>
   <si>
-    <t xml:space="preserve">bis Réaliser un cliché radiographique :  examen radiographique avec produit de contraste</t>
+    <t xml:space="preserve">D.4.2bis.</t>
   </si>
   <si>
-    <t xml:space="preserve">ter Réaliser un cliché radiographique :  principales incidences radiographiques </t>
+    <t xml:space="preserve">Réaliser un cliché radiographique :  examen radiographique avec produit de contraste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D.4.2ter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réaliser un cliché radiographique :  principales incidences radiographiques </t>
   </si>
   <si>
     <t xml:space="preserve">D.4.3.</t>
@@ -1600,13 +1612,19 @@
     <t xml:space="preserve">chien, chat cheval</t>
   </si>
   <si>
-    <t xml:space="preserve">bis Réaliser un examen échographique :  échographie de l’appareil génital de la vache </t>
+    <t xml:space="preserve">D.4.3bis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réaliser un examen échographique :  échographie de l’appareil génital de la vache </t>
   </si>
   <si>
     <t xml:space="preserve">bovin</t>
   </si>
   <si>
-    <t xml:space="preserve">ter Réaliser un examen échographique :  échographie abdominale durant un examen de coliques, échographie de l’appareil génital chez la jument </t>
+    <t xml:space="preserve">D.4.3ter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réaliser un examen échographique :  échographie abdominale durant un examen de coliques, échographie de l’appareil génital chez la jument </t>
   </si>
   <si>
     <t xml:space="preserve">D.4.4.</t>
@@ -1662,7 +1680,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1927,13 +1945,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2124,7 +2135,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2473,14 +2484,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17487,9 +17490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1498680</xdr:colOff>
+      <xdr:colOff>1496160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17504,7 +17507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1498680" cy="4608000"/>
+          <a:ext cx="1496160" cy="4605480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17525,9 +17528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7113240</xdr:colOff>
+      <xdr:colOff>7110720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17541,7 +17544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13436280" y="704880"/>
-          <a:ext cx="7062480" cy="9568080"/>
+          <a:ext cx="7059960" cy="9565560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17563,7 +17566,7 @@
   </sheetPr>
   <dimension ref="B1:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -17877,7 +17880,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -18073,7 +18076,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -18269,8 +18272,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20629,22 +20632,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="66" t="n">
         <f aca="false">IF(OR(H7&lt;=1,I7&lt;=1)=1,0,IF(OR(H7&lt;2,I7&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" s="67" t="n">
         <f aca="false">COUNTIF(N7:HA7,1)+COUNTIF(N7:HA7,2)*0.5</f>
@@ -21203,20 +21206,20 @@
     </row>
     <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="66" t="n">
         <f aca="false">IF(OR(H8&lt;=1,I8&lt;=1)=1,0,IF(OR(H8&lt;2,I8&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" s="67" t="n">
         <f aca="false">COUNTIF(N8:HA8,1)+COUNTIF(N8:HA8,2)*0.5</f>
@@ -21775,20 +21778,20 @@
     </row>
     <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="66" t="n">
         <f aca="false">IF(OR(H9&lt;=1,I9&lt;=1)=1,0,IF(OR(H9&lt;2,I9&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="67" t="n">
         <f aca="false">COUNTIF(N9:HA9,1)+COUNTIF(N9:HA9,2)*0.5</f>
@@ -22345,22 +22348,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" s="66" t="n">
         <f aca="false">IF(OR(H10&lt;=1,I10&lt;=1)=1,0,IF(OR(H10&lt;2,I10&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" s="67" t="n">
         <f aca="false">COUNTIF(N10:HA10,1)+COUNTIF(N10:HA10,2)*0.5</f>
@@ -22919,10 +22922,10 @@
     </row>
     <row r="11" s="71" customFormat="true" ht="72.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" s="66"/>
       <c r="D11" s="69"/>
@@ -23470,17 +23473,17 @@
     </row>
     <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" s="66" t="n">
         <f aca="false">IF(OR(H12&lt;=1,I12&lt;=1)=1,0,IF(OR(H12&lt;2,I12&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="67" t="n">
@@ -24040,20 +24043,20 @@
     </row>
     <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C13" s="66" t="n">
         <f aca="false">IF(OR(H13&lt;=1,I13&lt;=1)=1,0,IF(OR(H13&lt;2,I13&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" s="67" t="n">
         <f aca="false">COUNTIF(N13:HA13,1)+COUNTIF(N13:HA13,2)*0.5</f>
@@ -24612,20 +24615,20 @@
     </row>
     <row r="14" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" s="66" t="n">
         <f aca="false">IF(OR(H14&lt;=1,I14&lt;=1)=1,0,IF(OR(H14&lt;2,I14&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G14" s="67" t="n">
         <f aca="false">COUNTIF(N14:HA14,1)+COUNTIF(N14:HA14,2)*0.5</f>
@@ -25184,20 +25187,20 @@
     </row>
     <row r="15" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="66" t="n">
         <f aca="false">IF(OR(H15&lt;=1,I15&lt;=1)=1,0,IF(OR(H15&lt;2,I15&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G15" s="67" t="n">
         <f aca="false">COUNTIF(N15:HA15,1)+COUNTIF(N15:HA15,2)*0.5</f>
@@ -25756,20 +25759,20 @@
     </row>
     <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C16" s="66" t="n">
         <f aca="false">IF(OR(H16&lt;=1,I16&lt;=1)=1,0,IF(OR(H16&lt;2,I16&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G16" s="67" t="n">
         <f aca="false">COUNTIF(N16:HA16,1)+COUNTIF(N16:HA16,2)*0.5</f>
@@ -26326,22 +26329,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="66" t="n">
         <f aca="false">IF(OR(H17&lt;=1,I17&lt;=1)=1,0,IF(OR(H17&lt;2,I17&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G17" s="67" t="n">
         <f aca="false">COUNTIF(N17:HA17,1)+COUNTIF(N17:HA17,2)*0.5</f>
@@ -26900,20 +26903,20 @@
     </row>
     <row r="18" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" s="66" t="n">
         <f aca="false">IF(OR(H18&lt;=1,I18&lt;=1)=1,0,IF(OR(H18&lt;2,I18&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G18" s="67" t="n">
         <f aca="false">COUNTIF(N18:HA18,1)+COUNTIF(N18:HA18,2)*0.5</f>
@@ -27472,10 +27475,10 @@
     </row>
     <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" s="66" t="n">
         <f aca="false">IF(OR(H19&lt;=1,I19&lt;=1)=1,0,IF(OR(H19&lt;2,I19&lt;2)=1,1,2))</f>
@@ -27485,7 +27488,7 @@
         <v>118</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="67" t="n">
         <f aca="false">COUNTIF(N19:HA19,1)+COUNTIF(N19:HA19,2)*0.5</f>
@@ -28044,20 +28047,20 @@
     </row>
     <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" s="66" t="n">
         <f aca="false">IF(OR(H20&lt;=1,I20&lt;=1)=1,0,IF(OR(H20&lt;2,I20&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="67" t="n">
         <f aca="false">COUNTIF(N20:HA20,1)+COUNTIF(N20:HA20,2)*0.5</f>
@@ -28616,20 +28619,20 @@
     </row>
     <row r="21" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" s="66" t="n">
         <f aca="false">IF(OR(H21&lt;=1,I21&lt;=1)=1,0,IF(OR(H21&lt;2,I21&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G21" s="67" t="n">
         <f aca="false">COUNTIF(N21:HA21,1)+COUNTIF(N21:HA21,2)*0.5</f>
@@ -29188,10 +29191,10 @@
     </row>
     <row r="22" s="71" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="66"/>
       <c r="D22" s="72"/>
@@ -29739,10 +29742,10 @@
     </row>
     <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="66" t="n">
         <f aca="false">IF(OR(H23&lt;=1,I23&lt;=1)=1,0,IF(OR(H23&lt;2,I23&lt;2)=1,1,2))</f>
@@ -29752,7 +29755,7 @@
         <v>118</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G23" s="67" t="n">
         <f aca="false">COUNTIF(N23:HA23,1)+COUNTIF(N23:HA23,2)*0.5</f>
@@ -30311,20 +30314,20 @@
     </row>
     <row r="24" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="66" t="n">
         <f aca="false">IF(OR(H24&lt;=1,I24&lt;=1)=1,0,IF(OR(H24&lt;2,I24&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="67" t="n">
         <f aca="false">COUNTIF(N24:HA24,1)+COUNTIF(N24:HA24,2)*0.5</f>
@@ -30883,10 +30886,10 @@
     </row>
     <row r="25" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C25" s="66" t="n">
         <f aca="false">IF(OR(H25&lt;=1,I25&lt;=1)=1,0,IF(OR(H25&lt;2,I25&lt;2)=1,1,2))</f>
@@ -30896,7 +30899,7 @@
         <v>118</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G25" s="67" t="n">
         <f aca="false">COUNTIF(N25:HA25,1)+COUNTIF(N25:HA25,2)*0.5</f>
@@ -31453,22 +31456,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="66" t="n">
         <f aca="false">IF(OR(H26&lt;=1,I26&lt;=1)=1,0,IF(OR(H26&lt;2,I26&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G26" s="67" t="n">
         <f aca="false">COUNTIF(N26:HA26,1)+COUNTIF(N26:HA26,2)*0.5</f>
@@ -32027,10 +32030,10 @@
     </row>
     <row r="27" customFormat="false" ht="42.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" s="73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C27" s="74"/>
       <c r="D27" s="75"/>
@@ -32247,10 +32250,10 @@
     </row>
     <row r="28" s="71" customFormat="true" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" s="61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="69"/>
@@ -32638,10 +32641,10 @@
     </row>
     <row r="29" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C29" s="79" t="n">
         <f aca="false">IF(OR(H29&lt;=1,I29&lt;=1)=1,0,IF(OR(H29&lt;2,I29&lt;2)=1,1,2))</f>
@@ -32651,7 +32654,7 @@
         <v>118</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29" s="67" t="n">
         <f aca="false">COUNTIF(N29:HA29,1)+COUNTIF(N29:HA29,2)*0.5</f>
@@ -33218,20 +33221,20 @@
     </row>
     <row r="30" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="79" t="n">
         <f aca="false">IF(OR(H30&lt;=1,I30&lt;=1)=1,0,IF(OR(H30&lt;2,I30&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G30" s="67" t="n">
         <f aca="false">COUNTIF(N30:HA30,1)+COUNTIF(N30:HA30,2)*0.5</f>
@@ -33798,20 +33801,20 @@
     </row>
     <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" s="79" t="n">
         <f aca="false">IF(OR(H31&lt;=1,I31&lt;=1)=1,0,IF(OR(H31&lt;2,I31&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G31" s="67" t="n">
         <f aca="false">COUNTIF(N31:HA31,1)+COUNTIF(N31:HA31,2)*0.5</f>
@@ -34378,20 +34381,20 @@
     </row>
     <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="79" t="n">
         <f aca="false">IF(OR(H32&lt;=1,I32&lt;=1)=1,0,IF(OR(H32&lt;2,I32&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G32" s="67" t="n">
         <f aca="false">COUNTIF(N32:HA32,1)+COUNTIF(N32:HA32,2)*0.5</f>
@@ -34958,10 +34961,10 @@
     </row>
     <row r="33" s="71" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="69"/>
@@ -35517,20 +35520,20 @@
     </row>
     <row r="34" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C34" s="79" t="n">
         <f aca="false">IF(OR(H34&lt;=1,I34&lt;=1)=1,0,IF(OR(H34&lt;2,I34&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G34" s="67" t="n">
         <f aca="false">COUNTIF(N34:HA34,1)+COUNTIF(N34:HA34,2)*0.5</f>
@@ -36097,10 +36100,10 @@
     </row>
     <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="79" t="n">
         <f aca="false">IF(OR(H35&lt;=1,I35&lt;=1)=1,0,IF(OR(H35&lt;2,I35&lt;2)=1,1,2))</f>
@@ -36110,7 +36113,7 @@
         <v>118</v>
       </c>
       <c r="F35" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G35" s="67" t="n">
         <f aca="false">COUNTIF(N35:HA35,1)+COUNTIF(N35:HA35,2)*0.5</f>
@@ -36677,20 +36680,20 @@
     </row>
     <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="79" t="n">
         <f aca="false">IF(OR(H36&lt;=1,I36&lt;=1)=1,0,IF(OR(H36&lt;2,I36&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G36" s="67" t="n">
         <f aca="false">COUNTIF(N36:HA36,1)+COUNTIF(N36:HA36,2)*0.5</f>
@@ -37257,20 +37260,20 @@
     </row>
     <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="79" t="n">
         <f aca="false">IF(OR(H37&lt;=1,I37&lt;=1)=1,0,IF(OR(H37&lt;2,I37&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F37" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G37" s="67" t="n">
         <f aca="false">COUNTIF(N37:HA37,1)+COUNTIF(N37:HA37,2)*0.5</f>
@@ -37837,20 +37840,20 @@
     </row>
     <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C38" s="79" t="n">
         <f aca="false">IF(OR(H38&lt;=1,I38&lt;=1)=1,0,IF(OR(H38&lt;2,I38&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G38" s="67" t="n">
         <f aca="false">COUNTIF(N38:HA38,1)+COUNTIF(N38:HA38,2)*0.5</f>
@@ -38417,20 +38420,20 @@
     </row>
     <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" s="79" t="n">
         <f aca="false">IF(OR(H39&lt;=1,I39&lt;=1)=1,0,IF(OR(H39&lt;2,I39&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G39" s="67" t="n">
         <f aca="false">COUNTIF(N39:HA39,1)+COUNTIF(N39:HA39,2)*0.5</f>
@@ -38997,10 +39000,10 @@
     </row>
     <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C40" s="79" t="n">
         <f aca="false">IF(OR(H40&lt;=1,I40&lt;=1)=1,0,IF(OR(H40&lt;2,I40&lt;2)=1,1,2))</f>
@@ -39010,7 +39013,7 @@
         <v>118</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="67" t="n">
         <f aca="false">COUNTIF(N40:HA40,1)+COUNTIF(N40:HA40,2)*0.5</f>
@@ -39577,20 +39580,20 @@
     </row>
     <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C41" s="79" t="n">
         <f aca="false">IF(OR(H41&lt;=1,I41&lt;=1)=1,0,IF(OR(H41&lt;2,I41&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" s="67" t="n">
         <f aca="false">COUNTIF(N41:HA41,1)+COUNTIF(N41:HA41,2)*0.5</f>
@@ -40157,10 +40160,10 @@
     </row>
     <row r="42" s="71" customFormat="true" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B42" s="61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="69"/>
@@ -40719,20 +40722,20 @@
     </row>
     <row r="43" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C43" s="79" t="n">
         <f aca="false">IF(OR(H43&lt;=1,I43&lt;=1)=1,0,IF(OR(H43&lt;2,I43&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G43" s="67" t="n">
         <f aca="false">COUNTIF(N43:HA43,1)+COUNTIF(N43:HA43,2)*0.5</f>
@@ -41299,10 +41302,10 @@
     </row>
     <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C44" s="79" t="n">
         <f aca="false">IF(OR(H44&lt;=1,I44&lt;=1)=1,0,IF(OR(H44&lt;2,I44&lt;2)=1,1,2))</f>
@@ -41312,7 +41315,7 @@
         <v>118</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G44" s="67" t="n">
         <f aca="false">COUNTIF(N44:HA44,1)+COUNTIF(N44:HA44,2)*0.5</f>
@@ -41877,12 +41880,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C45" s="79" t="n">
         <f aca="false">IF(OR(H45&lt;=1,I45&lt;=1)=1,0,IF(OR(H45&lt;2,I45&lt;2)=1,1,2))</f>
@@ -42453,12 +42456,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B46" s="84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C46" s="79" t="n">
         <f aca="false">IF(OR(H46&lt;=1,I46&lt;=1)=1,0,IF(OR(H46&lt;2,I46&lt;2)=1,1,2))</f>
@@ -43031,19 +43034,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C47" s="79" t="n">
         <f aca="false">IF(OR(H47&lt;=1,I47&lt;=1)=1,0,IF(OR(H47&lt;2,I47&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D47" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="67" t="n">
@@ -43609,19 +43612,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" s="84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" s="79" t="n">
         <f aca="false">IF(OR(H48&lt;=1,I48&lt;=1)=1,0,IF(OR(H48&lt;2,I48&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F48" s="48"/>
       <c r="G48" s="67" t="n">
@@ -44187,12 +44190,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" s="84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" s="79" t="n">
         <f aca="false">IF(OR(H49&lt;=1,I49&lt;=1)=1,0,IF(OR(H49&lt;2,I49&lt;2)=1,1,2))</f>
@@ -44765,19 +44768,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B50" s="84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C50" s="79" t="n">
         <f aca="false">IF(OR(H50&lt;=1,I50&lt;=1)=1,0,IF(OR(H50&lt;2,I50&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F50" s="48"/>
       <c r="G50" s="67" t="n">
@@ -45331,19 +45334,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" s="84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C51" s="79" t="n">
         <f aca="false">IF(OR(H51&lt;=1,I51&lt;=1)=1,0,IF(OR(H51&lt;2,I51&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D51" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="67" t="n">
@@ -45909,12 +45912,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" s="84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C52" s="79" t="n">
         <f aca="false">IF(OR(H52&lt;=1,I52&lt;=1)=1,0,IF(OR(H52&lt;2,I52&lt;2)=1,1,2))</f>
@@ -46487,19 +46490,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B53" s="84" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C53" s="79" t="n">
         <f aca="false">IF(OR(H53&lt;=1,I53&lt;=1)=1,0,IF(OR(H53&lt;2,I53&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D53" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F53" s="48"/>
       <c r="G53" s="67" t="n">
@@ -47065,19 +47068,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="37.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B54" s="84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C54" s="79" t="n">
         <f aca="false">IF(OR(H54&lt;=1,I54&lt;=1)=1,0,IF(OR(H54&lt;2,I54&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="67" t="n">
@@ -47645,17 +47648,17 @@
     </row>
     <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" s="84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C55" s="79" t="n">
         <f aca="false">IF(OR(H55&lt;=1,I55&lt;=1)=1,0,IF(OR(H55&lt;2,I55&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="67" t="n">
@@ -48223,17 +48226,17 @@
     </row>
     <row r="56" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B56" s="84" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C56" s="79" t="n">
         <f aca="false">IF(OR(H56&lt;=1,I56&lt;=1)=1,0,IF(OR(H56&lt;2,I56&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="67" t="n">
@@ -48801,17 +48804,17 @@
     </row>
     <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B57" s="84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C57" s="79" t="n">
         <f aca="false">IF(OR(H57&lt;=1,I57&lt;=1)=1,0,IF(OR(H57&lt;2,I57&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="67" t="n">
@@ -49379,10 +49382,10 @@
     </row>
     <row r="58" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C58" s="79" t="n">
         <f aca="false">IF(OR(H58&lt;=1,I58&lt;=1)=1,0,IF(OR(H58&lt;2,I58&lt;2)=1,1,2))</f>
@@ -49957,17 +49960,17 @@
     </row>
     <row r="59" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C59" s="79" t="n">
         <f aca="false">IF(OR(H59&lt;=1,I59&lt;=1)=1,0,IF(OR(H59&lt;2,I59&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="67" t="n">
@@ -50535,17 +50538,17 @@
     </row>
     <row r="60" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="79" t="n">
         <f aca="false">IF(OR(H60&lt;=1,I60&lt;=1)=1,0,IF(OR(H60&lt;2,I60&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F60" s="48"/>
       <c r="G60" s="67" t="n">
@@ -51113,17 +51116,17 @@
     </row>
     <row r="61" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C61" s="79" t="n">
         <f aca="false">IF(OR(H61&lt;=1,I61&lt;=1)=1,0,IF(OR(H61&lt;2,I61&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D61" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F61" s="48"/>
       <c r="G61" s="67" t="n">
@@ -51691,10 +51694,10 @@
     </row>
     <row r="62" s="71" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C62" s="79"/>
       <c r="D62" s="69"/>
@@ -52250,10 +52253,10 @@
     </row>
     <row r="63" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C63" s="79" t="n">
         <f aca="false">IF(OR(H63&lt;=1,I63&lt;=1)=1,0,IF(OR(H63&lt;2,I63&lt;2)=1,1,2))</f>
@@ -52263,7 +52266,7 @@
         <v>118</v>
       </c>
       <c r="F63" s="48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G63" s="67" t="n">
         <f aca="false">COUNTIF(N63:HA63,1)+COUNTIF(N63:HA63,2)*0.5</f>
@@ -52800,19 +52803,19 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C64" s="79" t="n">
         <f aca="false">IF(OR(H64&lt;=1,I64&lt;=1)=1,0,IF(OR(H64&lt;2,I64&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F64" s="48"/>
       <c r="G64" s="67" t="n">
@@ -53352,10 +53355,10 @@
     </row>
     <row r="65" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C65" s="79" t="n">
         <f aca="false">IF(OR(H65&lt;=1,I65&lt;=1)=1,0,IF(OR(H65&lt;2,I65&lt;2)=1,1,2))</f>
@@ -53365,7 +53368,7 @@
         <v>118</v>
       </c>
       <c r="F65" s="48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G65" s="67" t="n">
         <f aca="false">COUNTIF(N65:HA65,1)+COUNTIF(N65:HA65,2)*0.5</f>
@@ -53902,19 +53905,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C66" s="79" t="n">
         <f aca="false">IF(OR(H66&lt;=1,I66&lt;=1)=1,0,IF(OR(H66&lt;2,I66&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F66" s="48"/>
       <c r="G66" s="67" t="n">
@@ -54452,19 +54455,19 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C67" s="79" t="n">
         <f aca="false">IF(OR(H67&lt;=1,I67&lt;=1)=1,0,IF(OR(H67&lt;2,I67&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F67" s="48"/>
       <c r="G67" s="67" t="n">
@@ -55004,20 +55007,20 @@
     </row>
     <row r="68" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C68" s="79" t="n">
         <f aca="false">IF(OR(H68&lt;=1,I68&lt;=1)=1,0,IF(OR(H68&lt;2,I68&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G68" s="67" t="n">
         <f aca="false">COUNTIF(N68:HA68,1)+COUNTIF(N68:HA68,2)*0.5</f>
@@ -55554,22 +55557,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C69" s="79" t="n">
         <f aca="false">IF(OR(H69&lt;=1,I69&lt;=1)=1,0,IF(OR(H69&lt;2,I69&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
       <c r="D69" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F69" s="48" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G69" s="67" t="n">
         <f aca="false">COUNTIF(N69:HA69,1)+COUNTIF(N69:HA69,2)*0.5</f>
@@ -56106,12 +56109,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C70" s="79" t="n">
         <f aca="false">IF(OR(H70&lt;=1,I70&lt;=1)=1,0,IF(OR(H70&lt;2,I70&lt;2)=1,1,2))</f>
@@ -56654,22 +56657,22 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C71" s="79" t="n">
         <f aca="false">IF(OR(H71&lt;=1,I71&lt;=1)=1,0,IF(OR(H71&lt;2,I71&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D71" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G71" s="67" t="n">
         <f aca="false">COUNTIF(N71:HA71,1)+COUNTIF(N71:HA71,2)*0.5</f>
@@ -57208,20 +57211,20 @@
     </row>
     <row r="72" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C72" s="79" t="n">
         <f aca="false">IF(OR(H72&lt;=1,I72&lt;=1)=1,0,IF(OR(H72&lt;2,I72&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D72" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F72" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G72" s="67" t="n">
         <f aca="false">COUNTIF(N72:HA72,1)+COUNTIF(N72:HA72,2)*0.5</f>
@@ -57760,10 +57763,10 @@
     </row>
     <row r="73" s="71" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="60" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B73" s="61" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C73" s="79"/>
       <c r="D73" s="69"/>
@@ -58319,20 +58322,20 @@
     </row>
     <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C74" s="79" t="n">
         <f aca="false">IF(OR(H74&lt;=1,I74&lt;=1)=1,0,IF(OR(H74&lt;2,I74&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D74" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F74" s="48" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G74" s="67" t="n">
         <f aca="false">COUNTIF(N74:HA74,1)+COUNTIF(N74:HA74,2)*0.5</f>
@@ -58871,20 +58874,20 @@
     </row>
     <row r="75" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C75" s="79" t="n">
         <f aca="false">IF(OR(H75&lt;=1,I75&lt;=1)=1,0,IF(OR(H75&lt;2,I75&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D75" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F75" s="48" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G75" s="67" t="n">
         <f aca="false">COUNTIF(N75:HA75,1)+COUNTIF(N75:HA75,2)*0.5</f>
@@ -59423,20 +59426,20 @@
     </row>
     <row r="76" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C76" s="79" t="n">
         <f aca="false">IF(OR(H76&lt;=1,I76&lt;=1)=1,0,IF(OR(H76&lt;2,I76&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
       <c r="D76" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F76" s="48" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G76" s="67" t="n">
         <f aca="false">COUNTIF(N76:HA76,1)+COUNTIF(N76:HA76,2)*0.5</f>
@@ -59973,10 +59976,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="87"/>
-      <c r="N77" s="88"/>
-    </row>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -66020,7 +66022,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40DC7577-32A2-434A-90E4-B71EA492AF92}</x14:id>
+          <x14:id>{CE4E321C-DC85-482E-9953-E4C82E2C9AA6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -66034,7 +66036,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2AD910C0-6A84-4DCE-93B7-AD4419F78CEC}</x14:id>
+          <x14:id>{E429243F-2466-49E1-8116-347CB526BECA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -66048,7 +66050,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2CA829D-9575-4045-98F2-E826B7D3B9EA}</x14:id>
+          <x14:id>{1AFA3B25-D253-4AA0-8365-D64FC7B138C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -66073,7 +66075,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{40DC7577-32A2-434A-90E4-B71EA492AF92}">
+          <x14:cfRule type="dataBar" id="{CE4E321C-DC85-482E-9953-E4C82E2C9AA6}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66084,7 +66086,7 @@
           <xm:sqref>G:G</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2AD910C0-6A84-4DCE-93B7-AD4419F78CEC}">
+          <x14:cfRule type="dataBar" id="{E429243F-2466-49E1-8116-347CB526BECA}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66095,7 +66097,7 @@
           <xm:sqref>H:H</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2CA829D-9575-4045-98F2-E826B7D3B9EA}">
+          <x14:cfRule type="dataBar" id="{1AFA3B25-D253-4AA0-8365-D64FC7B138C1}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66106,7 +66108,7 @@
           <xm:sqref>I:I</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1497" id="{305C3295-A537-4121-B25B-3AAE00CB751C}">
+          <x14:cfRule type="iconSet" priority="1497" id="{9D43BB8B-7849-48F1-9F63-CED0792D89B0}">
             <x14:iconSet iconSet="3Triangles" custom="1" reverse="0" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/tests/fixtures/matrix_sample.xlsx
+++ b/tests/fixtures/matrix_sample.xlsx
@@ -1153,10 +1153,10 @@
     <t xml:space="preserve">UC126</t>
   </si>
   <si>
-    <t xml:space="preserve">Statut</t>
+    <t xml:space="preserve">Niveau ref</t>
   </si>
   <si>
-    <t xml:space="preserve">Niveau ref</t>
+    <t xml:space="preserve">Statut</t>
   </si>
   <si>
     <t xml:space="preserve">Connaissances</t>
@@ -1830,16 +1830,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="22"/>
-      <color rgb="FF7030A0"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="22"/>
+      <color rgb="FF7030A0"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2135,7 +2135,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2292,12 +2292,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2340,7 +2340,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2364,11 +2364,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2384,12 +2384,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2404,7 +2404,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2430,10 +2430,6 @@
     </xf>
     <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -17490,9 +17486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1496160</xdr:colOff>
+      <xdr:colOff>1495800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17507,7 +17503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1496160" cy="4605480"/>
+          <a:ext cx="1495800" cy="4605120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17528,9 +17524,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7110720</xdr:colOff>
+      <xdr:colOff>7110360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -17544,7 +17540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13436280" y="704880"/>
-          <a:ext cx="7059960" cy="9565560"/>
+          <a:ext cx="7059600" cy="9565200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18270,25 +18266,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="28.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="5.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="11.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="39" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="40" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="40" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="40" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="40" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="40" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="40" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="40" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="39" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="39" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="39" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="39" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="39" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="39" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="15" style="41" width="2.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="41" width="2.85"/>
@@ -18301,6 +18297,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
@@ -18618,7 +18615,7 @@
       <c r="B2" s="42"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="F2" s="47"/>
       <c r="N2" s="45"/>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
@@ -18846,9 +18843,9 @@
       <c r="J3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
       <c r="O3" s="53" t="n">
         <f aca="false">COUNTIF(O6:O76,1)+COUNTIF(O6:O76,2)*0.5</f>
@@ -19463,14 +19460,14 @@
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="56"/>
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
@@ -19682,14 +19679,14 @@
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
       <c r="N5" s="61"/>
       <c r="O5" s="64"/>
       <c r="P5" s="65"/>
@@ -20060,21 +20057,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="66" t="n">
+      <c r="C6" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="66" t="n">
         <f aca="false">IF(OR(H6&lt;=1,I6&lt;=1)=1,0,IF(OR(H6&lt;2,I6&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="47" t="s">
         <v>119</v>
       </c>
       <c r="G6" s="67" t="n">
@@ -20089,11 +20086,11 @@
         <f aca="false">COUNTIF(N6:HA6,1000)+COUNTIF(N6:HA6,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J6" s="48" t="str">
+      <c r="J6" s="47" t="str">
         <f aca="false">IF(K6=100,"AV",IF(K6=200,"AF",IF(K6=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K6" s="48" t="n">
+      <c r="K6" s="47" t="n">
         <f aca="false">IF(COUNTIF(N6:HA6,300)&gt;=1,300,IF(COUNTIF(N6:HA6,200)&gt;=1,200,IF(COUNTIF(N6:HA6,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -20639,14 +20636,14 @@
       <c r="B7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="66" t="n">
+      <c r="C7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="66" t="n">
         <f aca="false">IF(OR(H7&lt;=1,I7&lt;=1)=1,0,IF(OR(H7&lt;2,I7&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>123</v>
       </c>
       <c r="G7" s="67" t="n">
@@ -20661,11 +20658,11 @@
         <f aca="false">COUNTIF(N7:HA7,1000)+COUNTIF(N7:HA7,2000)*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="J7" s="48" t="str">
+      <c r="J7" s="47" t="str">
         <f aca="false">IF(K7=100,"AV",IF(K7=200,"AF",IF(K7=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K7" s="48" t="n">
+      <c r="K7" s="47" t="n">
         <f aca="false">IF(COUNTIF(N7:HA7,300)&gt;=1,300,IF(COUNTIF(N7:HA7,200)&gt;=1,200,IF(COUNTIF(N7:HA7,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -21204,21 +21201,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="66" t="n">
+      <c r="C8" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="66" t="n">
         <f aca="false">IF(OR(H8&lt;=1,I8&lt;=1)=1,0,IF(OR(H8&lt;2,I8&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G8" s="67" t="n">
@@ -21233,11 +21230,11 @@
         <f aca="false">COUNTIF(N8:HA8,1000)+COUNTIF(N8:HA8,2000)*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J8" s="48" t="str">
+      <c r="J8" s="47" t="str">
         <f aca="false">IF(K8=100,"AV",IF(K8=200,"AF",IF(K8=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K8" s="48" t="n">
+      <c r="K8" s="47" t="n">
         <f aca="false">IF(COUNTIF(N8:HA8,300)&gt;=1,300,IF(COUNTIF(N8:HA8,200)&gt;=1,200,IF(COUNTIF(N8:HA8,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -21776,21 +21773,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="66" t="n">
+      <c r="C9" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="66" t="n">
         <f aca="false">IF(OR(H9&lt;=1,I9&lt;=1)=1,0,IF(OR(H9&lt;2,I9&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="67" t="n">
@@ -21805,11 +21802,11 @@
         <f aca="false">COUNTIF(N9:HA9,1000)+COUNTIF(N9:HA9,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J9" s="48" t="str">
+      <c r="J9" s="47" t="str">
         <f aca="false">IF(K9=100,"AV",IF(K9=200,"AF",IF(K9=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K9" s="48" t="n">
+      <c r="K9" s="47" t="n">
         <f aca="false">IF(COUNTIF(N9:HA9,300)&gt;=1,300,IF(COUNTIF(N9:HA9,200)&gt;=1,200,IF(COUNTIF(N9:HA9,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -22355,14 +22352,14 @@
       <c r="B10" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="66" t="n">
+      <c r="C10" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="66" t="n">
         <f aca="false">IF(OR(H10&lt;=1,I10&lt;=1)=1,0,IF(OR(H10&lt;2,I10&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>132</v>
       </c>
       <c r="G10" s="67" t="n">
@@ -22377,11 +22374,11 @@
         <f aca="false">COUNTIF(N10:HA10,1000)+COUNTIF(N10:HA10,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J10" s="48" t="str">
+      <c r="J10" s="47" t="str">
         <f aca="false">IF(K10=100,"AV",IF(K10=200,"AF",IF(K10=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K10" s="48" t="n">
+      <c r="K10" s="47" t="n">
         <f aca="false">IF(COUNTIF(N10:HA10,300)&gt;=1,300,IF(COUNTIF(N10:HA10,200)&gt;=1,200,IF(COUNTIF(N10:HA10,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -22920,22 +22917,22 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" s="71" customFormat="true" ht="72.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="71" customFormat="true" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="60" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="0"/>
       <c r="F11" s="69"/>
       <c r="G11" s="67"/>
       <c r="H11" s="67"/>
       <c r="I11" s="67"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="67"/>
       <c r="M11" s="67"/>
       <c r="N11" s="61"/>
@@ -23471,21 +23468,21 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="66" t="n">
+      <c r="C12" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="66" t="n">
         <f aca="false">IF(OR(H12&lt;=1,I12&lt;=1)=1,0,IF(OR(H12&lt;2,I12&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="67" t="n">
         <f aca="false">COUNTIF(N12:HA12,1)+COUNTIF(N12:HA12,2)*0.5</f>
         <v>7</v>
@@ -23498,11 +23495,11 @@
         <f aca="false">COUNTIF(N12:HA12,1000)+COUNTIF(N12:HA12,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J12" s="48" t="str">
+      <c r="J12" s="47" t="str">
         <f aca="false">IF(K12=100,"AV",IF(K12=200,"AF",IF(K12=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K12" s="48" t="n">
+      <c r="K12" s="47" t="n">
         <f aca="false">IF(COUNTIF(N12:HA12,300)&gt;=1,300,IF(COUNTIF(N12:HA12,200)&gt;=1,200,IF(COUNTIF(N12:HA12,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -24041,21 +24038,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="66" t="n">
+      <c r="C13" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="66" t="n">
         <f aca="false">IF(OR(H13&lt;=1,I13&lt;=1)=1,0,IF(OR(H13&lt;2,I13&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="47" t="s">
         <v>139</v>
       </c>
       <c r="G13" s="67" t="n">
@@ -24070,11 +24067,11 @@
         <f aca="false">COUNTIF(N13:HA13,1000)+COUNTIF(N13:HA13,2000)*0.5</f>
         <v>6</v>
       </c>
-      <c r="J13" s="48" t="str">
+      <c r="J13" s="47" t="str">
         <f aca="false">IF(K13=100,"AV",IF(K13=200,"AF",IF(K13=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K13" s="48" t="n">
+      <c r="K13" s="47" t="n">
         <f aca="false">IF(COUNTIF(N13:HA13,300)&gt;=1,300,IF(COUNTIF(N13:HA13,200)&gt;=1,200,IF(COUNTIF(N13:HA13,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -24613,21 +24610,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="66" t="n">
+      <c r="C14" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="66" t="n">
         <f aca="false">IF(OR(H14&lt;=1,I14&lt;=1)=1,0,IF(OR(H14&lt;2,I14&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>142</v>
       </c>
       <c r="G14" s="67" t="n">
@@ -24642,11 +24639,11 @@
         <f aca="false">COUNTIF(N14:HA14,1000)+COUNTIF(N14:HA14,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J14" s="48" t="str">
+      <c r="J14" s="47" t="str">
         <f aca="false">IF(K14=100,"AV",IF(K14=200,"AF",IF(K14=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K14" s="48" t="n">
+      <c r="K14" s="47" t="n">
         <f aca="false">IF(COUNTIF(N14:HA14,300)&gt;=1,300,IF(COUNTIF(N14:HA14,200)&gt;=1,200,IF(COUNTIF(N14:HA14,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -25185,21 +25182,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
         <v>143</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="66" t="n">
+      <c r="C15" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="66" t="n">
         <f aca="false">IF(OR(H15&lt;=1,I15&lt;=1)=1,0,IF(OR(H15&lt;2,I15&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G15" s="67" t="n">
@@ -25214,11 +25211,11 @@
         <f aca="false">COUNTIF(N15:HA15,1000)+COUNTIF(N15:HA15,2000)*0.5</f>
         <v>3</v>
       </c>
-      <c r="J15" s="48" t="str">
+      <c r="J15" s="47" t="str">
         <f aca="false">IF(K15=100,"AV",IF(K15=200,"AF",IF(K15=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="K15" s="47" t="n">
         <f aca="false">IF(COUNTIF(N15:HA15,300)&gt;=1,300,IF(COUNTIF(N15:HA15,200)&gt;=1,200,IF(COUNTIF(N15:HA15,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -25757,21 +25754,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>145</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="66" t="n">
+      <c r="C16" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="66" t="n">
         <f aca="false">IF(OR(H16&lt;=1,I16&lt;=1)=1,0,IF(OR(H16&lt;2,I16&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="47" t="s">
         <v>147</v>
       </c>
       <c r="G16" s="67" t="n">
@@ -25786,11 +25783,11 @@
         <f aca="false">COUNTIF(N16:HA16,1000)+COUNTIF(N16:HA16,2000)*0.5</f>
         <v>9</v>
       </c>
-      <c r="J16" s="48" t="str">
+      <c r="J16" s="47" t="str">
         <f aca="false">IF(K16=100,"AV",IF(K16=200,"AF",IF(K16=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K16" s="48" t="n">
+      <c r="K16" s="47" t="n">
         <f aca="false">IF(COUNTIF(N16:HA16,300)&gt;=1,300,IF(COUNTIF(N16:HA16,200)&gt;=1,200,IF(COUNTIF(N16:HA16,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -26336,14 +26333,14 @@
       <c r="B17" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="66" t="n">
+      <c r="C17" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="66" t="n">
         <f aca="false">IF(OR(H17&lt;=1,I17&lt;=1)=1,0,IF(OR(H17&lt;2,I17&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>150</v>
       </c>
       <c r="G17" s="67" t="n">
@@ -26358,11 +26355,11 @@
         <f aca="false">COUNTIF(N17:HA17,1000)+COUNTIF(N17:HA17,2000)*0.5</f>
         <v>4</v>
       </c>
-      <c r="J17" s="48" t="str">
+      <c r="J17" s="47" t="str">
         <f aca="false">IF(K17=100,"AV",IF(K17=200,"AF",IF(K17=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K17" s="48" t="n">
+      <c r="K17" s="47" t="n">
         <f aca="false">IF(COUNTIF(N17:HA17,300)&gt;=1,300,IF(COUNTIF(N17:HA17,200)&gt;=1,200,IF(COUNTIF(N17:HA17,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -26901,21 +26898,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="66" t="n">
+      <c r="C18" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="66" t="n">
         <f aca="false">IF(OR(H18&lt;=1,I18&lt;=1)=1,0,IF(OR(H18&lt;2,I18&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="47" t="s">
         <v>153</v>
       </c>
       <c r="G18" s="67" t="n">
@@ -26930,11 +26927,11 @@
         <f aca="false">COUNTIF(N18:HA18,1000)+COUNTIF(N18:HA18,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J18" s="48" t="str">
+      <c r="J18" s="47" t="str">
         <f aca="false">IF(K18=100,"AV",IF(K18=200,"AF",IF(K18=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K18" s="48" t="n">
+      <c r="K18" s="47" t="n">
         <f aca="false">IF(COUNTIF(N18:HA18,300)&gt;=1,300,IF(COUNTIF(N18:HA18,200)&gt;=1,200,IF(COUNTIF(N18:HA18,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -27473,21 +27470,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="66" t="n">
+      <c r="C19" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="66" t="n">
         <f aca="false">IF(OR(H19&lt;=1,I19&lt;=1)=1,0,IF(OR(H19&lt;2,I19&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G19" s="67" t="n">
@@ -27502,11 +27499,11 @@
         <f aca="false">COUNTIF(N19:HA19,1000)+COUNTIF(N19:HA19,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J19" s="48" t="str">
+      <c r="J19" s="47" t="str">
         <f aca="false">IF(K19=100,"AV",IF(K19=200,"AF",IF(K19=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K19" s="48" t="n">
+      <c r="K19" s="47" t="n">
         <f aca="false">IF(COUNTIF(N19:HA19,300)&gt;=1,300,IF(COUNTIF(N19:HA19,200)&gt;=1,200,IF(COUNTIF(N19:HA19,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -28045,21 +28042,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="66" t="n">
+      <c r="C20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="66" t="n">
         <f aca="false">IF(OR(H20&lt;=1,I20&lt;=1)=1,0,IF(OR(H20&lt;2,I20&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="67" t="n">
@@ -28074,11 +28071,11 @@
         <f aca="false">COUNTIF(N20:HA20,1000)+COUNTIF(N20:HA20,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J20" s="48" t="str">
+      <c r="J20" s="47" t="str">
         <f aca="false">IF(K20=100,"AV",IF(K20=200,"AF",IF(K20=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K20" s="48" t="n">
+      <c r="K20" s="47" t="n">
         <f aca="false">IF(COUNTIF(N20:HA20,300)&gt;=1,300,IF(COUNTIF(N20:HA20,200)&gt;=1,200,IF(COUNTIF(N20:HA20,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -28617,21 +28614,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="66" t="n">
+      <c r="C21" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="66" t="n">
         <f aca="false">IF(OR(H21&lt;=1,I21&lt;=1)=1,0,IF(OR(H21&lt;2,I21&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D21" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G21" s="67" t="n">
@@ -28646,11 +28643,11 @@
         <f aca="false">COUNTIF(N21:HA21,1000)+COUNTIF(N21:HA21,2000)*0.5</f>
         <v>4.5</v>
       </c>
-      <c r="J21" s="48" t="str">
+      <c r="J21" s="47" t="str">
         <f aca="false">IF(K21=100,"AV",IF(K21=200,"AF",IF(K21=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K21" s="48" t="n">
+      <c r="K21" s="47" t="n">
         <f aca="false">IF(COUNTIF(N21:HA21,300)&gt;=1,300,IF(COUNTIF(N21:HA21,200)&gt;=1,200,IF(COUNTIF(N21:HA21,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -29196,15 +29193,15 @@
       <c r="B22" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="0"/>
       <c r="F22" s="72"/>
       <c r="G22" s="67"/>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
       <c r="N22" s="61"/>
@@ -29740,21 +29737,21 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="14" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="66" t="n">
+      <c r="C23" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="66" t="n">
         <f aca="false">IF(OR(H23&lt;=1,I23&lt;=1)=1,0,IF(OR(H23&lt;2,I23&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="67" t="n">
@@ -29769,11 +29766,11 @@
         <f aca="false">COUNTIF(N23:HA23,1000)+COUNTIF(N23:HA23,2000)*0.5</f>
         <v>4.5</v>
       </c>
-      <c r="J23" s="48" t="str">
+      <c r="J23" s="47" t="str">
         <f aca="false">IF(K23=100,"AV",IF(K23=200,"AF",IF(K23=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K23" s="48" t="n">
+      <c r="K23" s="47" t="n">
         <f aca="false">IF(COUNTIF(N23:HA23,300)&gt;=1,300,IF(COUNTIF(N23:HA23,200)&gt;=1,200,IF(COUNTIF(N23:HA23,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -30312,21 +30309,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="66" t="n">
+      <c r="C24" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="66" t="n">
         <f aca="false">IF(OR(H24&lt;=1,I24&lt;=1)=1,0,IF(OR(H24&lt;2,I24&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="67" t="n">
@@ -30341,11 +30338,11 @@
         <f aca="false">COUNTIF(N24:HA24,1000)+COUNTIF(N24:HA24,2000)*0.5</f>
         <v>4</v>
       </c>
-      <c r="J24" s="48" t="str">
+      <c r="J24" s="47" t="str">
         <f aca="false">IF(K24=100,"AV",IF(K24=200,"AF",IF(K24=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K24" s="48" t="n">
+      <c r="K24" s="47" t="n">
         <f aca="false">IF(COUNTIF(N24:HA24,300)&gt;=1,300,IF(COUNTIF(N24:HA24,200)&gt;=1,200,IF(COUNTIF(N24:HA24,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -30884,21 +30881,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
         <v>166</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="66" t="n">
+      <c r="C25" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="66" t="n">
         <f aca="false">IF(OR(H25&lt;=1,I25&lt;=1)=1,0,IF(OR(H25&lt;2,I25&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G25" s="67" t="n">
@@ -30913,11 +30910,11 @@
         <f aca="false">COUNTIF(N25:HA25,1000)+COUNTIF(N25:HA25,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J25" s="48" t="str">
+      <c r="J25" s="47" t="str">
         <f aca="false">IF(K25=100,"AV",IF(K25=200,"AF",IF(K25=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K25" s="48" t="n">
+      <c r="K25" s="47" t="n">
         <f aca="false">IF(COUNTIF(N25:HA25,300)&gt;=1,300,IF(COUNTIF(N25:HA25,200)&gt;=1,200,IF(COUNTIF(N25:HA25,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -31463,14 +31460,14 @@
       <c r="B26" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="66" t="n">
+      <c r="C26" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="66" t="n">
         <f aca="false">IF(OR(H26&lt;=1,I26&lt;=1)=1,0,IF(OR(H26&lt;2,I26&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D26" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G26" s="67" t="n">
@@ -31485,11 +31482,11 @@
         <f aca="false">COUNTIF(N26:HA26,1000)+COUNTIF(N26:HA26,2000)*0.5</f>
         <v>4</v>
       </c>
-      <c r="J26" s="48" t="str">
+      <c r="J26" s="47" t="str">
         <f aca="false">IF(K26=100,"AV",IF(K26=200,"AF",IF(K26=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K26" s="48" t="n">
+      <c r="K26" s="47" t="n">
         <f aca="false">IF(COUNTIF(N26:HA26,300)&gt;=1,300,IF(COUNTIF(N26:HA26,200)&gt;=1,200,IF(COUNTIF(N26:HA26,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -32036,227 +32033,227 @@
         <v>171</v>
       </c>
       <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
       <c r="N27" s="73"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="78"/>
-      <c r="W27" s="78"/>
-      <c r="X27" s="78"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="78"/>
-      <c r="AC27" s="78"/>
-      <c r="AD27" s="78"/>
-      <c r="AE27" s="78"/>
-      <c r="AF27" s="78"/>
-      <c r="AG27" s="78"/>
-      <c r="AH27" s="78"/>
-      <c r="AI27" s="78"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="78"/>
-      <c r="AL27" s="78"/>
-      <c r="AM27" s="78"/>
-      <c r="AN27" s="78"/>
-      <c r="AO27" s="78"/>
-      <c r="AP27" s="78"/>
-      <c r="AQ27" s="78"/>
-      <c r="AR27" s="78"/>
-      <c r="AS27" s="78"/>
-      <c r="AT27" s="78"/>
-      <c r="AU27" s="78"/>
-      <c r="AV27" s="78"/>
-      <c r="AW27" s="78"/>
-      <c r="AX27" s="78"/>
-      <c r="AY27" s="78"/>
-      <c r="AZ27" s="78"/>
-      <c r="BA27" s="78"/>
-      <c r="BB27" s="78"/>
-      <c r="BC27" s="78"/>
-      <c r="BD27" s="78"/>
-      <c r="BE27" s="78"/>
-      <c r="BF27" s="78"/>
-      <c r="BG27" s="78"/>
-      <c r="BH27" s="78"/>
-      <c r="BI27" s="78"/>
-      <c r="BJ27" s="78"/>
-      <c r="BK27" s="78"/>
-      <c r="BL27" s="78"/>
-      <c r="BM27" s="78"/>
-      <c r="BN27" s="78"/>
-      <c r="BO27" s="78"/>
-      <c r="BP27" s="78"/>
-      <c r="BQ27" s="78"/>
-      <c r="BR27" s="78"/>
-      <c r="BS27" s="77"/>
-      <c r="BT27" s="77"/>
-      <c r="BU27" s="77"/>
-      <c r="BV27" s="77"/>
-      <c r="BW27" s="78"/>
-      <c r="BX27" s="78"/>
-      <c r="BY27" s="78"/>
-      <c r="BZ27" s="78"/>
-      <c r="CA27" s="78"/>
-      <c r="CB27" s="78"/>
-      <c r="CC27" s="78"/>
-      <c r="CD27" s="78"/>
-      <c r="CE27" s="78"/>
-      <c r="CF27" s="78"/>
-      <c r="CG27" s="78"/>
-      <c r="CH27" s="78"/>
-      <c r="CI27" s="78"/>
-      <c r="CJ27" s="78"/>
-      <c r="CK27" s="78"/>
-      <c r="CL27" s="78"/>
-      <c r="CM27" s="78"/>
-      <c r="CN27" s="78"/>
-      <c r="CO27" s="78"/>
-      <c r="CP27" s="78"/>
-      <c r="CQ27" s="78"/>
-      <c r="CR27" s="78"/>
-      <c r="CS27" s="78"/>
-      <c r="CT27" s="78"/>
-      <c r="CU27" s="78"/>
-      <c r="CV27" s="78"/>
-      <c r="CW27" s="78"/>
-      <c r="CX27" s="78"/>
-      <c r="CY27" s="77"/>
-      <c r="CZ27" s="77"/>
-      <c r="DA27" s="77"/>
-      <c r="DB27" s="77"/>
-      <c r="DC27" s="78"/>
-      <c r="DD27" s="78"/>
-      <c r="DE27" s="78"/>
-      <c r="DF27" s="78"/>
-      <c r="DG27" s="78"/>
-      <c r="DH27" s="78"/>
-      <c r="DI27" s="78"/>
-      <c r="DJ27" s="78"/>
-      <c r="DK27" s="78"/>
-      <c r="DL27" s="78"/>
-      <c r="DM27" s="78"/>
-      <c r="DN27" s="78"/>
-      <c r="DO27" s="78"/>
-      <c r="DP27" s="78"/>
-      <c r="DQ27" s="78"/>
-      <c r="DR27" s="78"/>
-      <c r="DS27" s="78"/>
-      <c r="DT27" s="78"/>
-      <c r="DU27" s="78"/>
-      <c r="DV27" s="78"/>
-      <c r="DW27" s="78"/>
-      <c r="DX27" s="78"/>
-      <c r="DY27" s="78"/>
-      <c r="DZ27" s="78"/>
-      <c r="EA27" s="78"/>
-      <c r="EB27" s="78"/>
-      <c r="EC27" s="78"/>
-      <c r="ED27" s="78"/>
-      <c r="EE27" s="78"/>
-      <c r="EF27" s="78"/>
-      <c r="EG27" s="78"/>
-      <c r="EH27" s="78"/>
-      <c r="EI27" s="78"/>
-      <c r="EJ27" s="78"/>
-      <c r="EK27" s="78"/>
-      <c r="EL27" s="78"/>
-      <c r="EM27" s="78"/>
-      <c r="EN27" s="78"/>
-      <c r="EO27" s="78"/>
-      <c r="EP27" s="78"/>
-      <c r="EQ27" s="78"/>
-      <c r="ER27" s="78"/>
-      <c r="ES27" s="78"/>
-      <c r="ET27" s="78"/>
-      <c r="EU27" s="78"/>
-      <c r="EV27" s="78"/>
-      <c r="EW27" s="78"/>
-      <c r="EX27" s="78"/>
-      <c r="EY27" s="78"/>
-      <c r="EZ27" s="78"/>
-      <c r="FA27" s="78"/>
-      <c r="FB27" s="78"/>
-      <c r="FC27" s="77"/>
-      <c r="FD27" s="77"/>
-      <c r="FE27" s="77"/>
-      <c r="FF27" s="77"/>
-      <c r="FG27" s="78"/>
-      <c r="FH27" s="78"/>
-      <c r="FI27" s="78"/>
-      <c r="FJ27" s="78"/>
-      <c r="FK27" s="78"/>
-      <c r="FL27" s="78"/>
-      <c r="FM27" s="78"/>
-      <c r="FN27" s="78"/>
-      <c r="FO27" s="78"/>
-      <c r="FP27" s="78"/>
-      <c r="FQ27" s="78"/>
-      <c r="FR27" s="78"/>
-      <c r="FS27" s="78"/>
-      <c r="FT27" s="78"/>
-      <c r="FU27" s="78"/>
-      <c r="FV27" s="78"/>
-      <c r="FW27" s="78"/>
-      <c r="FX27" s="78"/>
-      <c r="FY27" s="78"/>
-      <c r="FZ27" s="78"/>
-      <c r="GA27" s="78"/>
-      <c r="GB27" s="78"/>
-      <c r="GC27" s="78"/>
-      <c r="GD27" s="78"/>
-      <c r="GE27" s="78"/>
-      <c r="GF27" s="78"/>
-      <c r="GG27" s="78"/>
-      <c r="GH27" s="78"/>
-      <c r="GI27" s="78"/>
-      <c r="GJ27" s="78"/>
-      <c r="GK27" s="78"/>
-      <c r="GL27" s="78"/>
-      <c r="GM27" s="78"/>
-      <c r="GN27" s="78"/>
-      <c r="GO27" s="78"/>
-      <c r="GP27" s="78"/>
-      <c r="GQ27" s="78"/>
-      <c r="GR27" s="78"/>
-      <c r="GS27" s="78"/>
-      <c r="GT27" s="78"/>
-      <c r="GU27" s="78"/>
-      <c r="GV27" s="78"/>
-      <c r="GW27" s="78"/>
-      <c r="GX27" s="78"/>
-      <c r="GY27" s="78"/>
-      <c r="GZ27" s="78"/>
-      <c r="HA27" s="78"/>
-      <c r="HB27" s="78"/>
-      <c r="HC27" s="78"/>
-      <c r="HD27" s="78"/>
-      <c r="HE27" s="78"/>
-      <c r="HF27" s="78"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="77"/>
+      <c r="AD27" s="77"/>
+      <c r="AE27" s="77"/>
+      <c r="AF27" s="77"/>
+      <c r="AG27" s="77"/>
+      <c r="AH27" s="77"/>
+      <c r="AI27" s="77"/>
+      <c r="AJ27" s="77"/>
+      <c r="AK27" s="77"/>
+      <c r="AL27" s="77"/>
+      <c r="AM27" s="77"/>
+      <c r="AN27" s="77"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="77"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="77"/>
+      <c r="AT27" s="77"/>
+      <c r="AU27" s="77"/>
+      <c r="AV27" s="77"/>
+      <c r="AW27" s="77"/>
+      <c r="AX27" s="77"/>
+      <c r="AY27" s="77"/>
+      <c r="AZ27" s="77"/>
+      <c r="BA27" s="77"/>
+      <c r="BB27" s="77"/>
+      <c r="BC27" s="77"/>
+      <c r="BD27" s="77"/>
+      <c r="BE27" s="77"/>
+      <c r="BF27" s="77"/>
+      <c r="BG27" s="77"/>
+      <c r="BH27" s="77"/>
+      <c r="BI27" s="77"/>
+      <c r="BJ27" s="77"/>
+      <c r="BK27" s="77"/>
+      <c r="BL27" s="77"/>
+      <c r="BM27" s="77"/>
+      <c r="BN27" s="77"/>
+      <c r="BO27" s="77"/>
+      <c r="BP27" s="77"/>
+      <c r="BQ27" s="77"/>
+      <c r="BR27" s="77"/>
+      <c r="BS27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
+      <c r="BW27" s="77"/>
+      <c r="BX27" s="77"/>
+      <c r="BY27" s="77"/>
+      <c r="BZ27" s="77"/>
+      <c r="CA27" s="77"/>
+      <c r="CB27" s="77"/>
+      <c r="CC27" s="77"/>
+      <c r="CD27" s="77"/>
+      <c r="CE27" s="77"/>
+      <c r="CF27" s="77"/>
+      <c r="CG27" s="77"/>
+      <c r="CH27" s="77"/>
+      <c r="CI27" s="77"/>
+      <c r="CJ27" s="77"/>
+      <c r="CK27" s="77"/>
+      <c r="CL27" s="77"/>
+      <c r="CM27" s="77"/>
+      <c r="CN27" s="77"/>
+      <c r="CO27" s="77"/>
+      <c r="CP27" s="77"/>
+      <c r="CQ27" s="77"/>
+      <c r="CR27" s="77"/>
+      <c r="CS27" s="77"/>
+      <c r="CT27" s="77"/>
+      <c r="CU27" s="77"/>
+      <c r="CV27" s="77"/>
+      <c r="CW27" s="77"/>
+      <c r="CX27" s="77"/>
+      <c r="CY27" s="76"/>
+      <c r="CZ27" s="76"/>
+      <c r="DA27" s="76"/>
+      <c r="DB27" s="76"/>
+      <c r="DC27" s="77"/>
+      <c r="DD27" s="77"/>
+      <c r="DE27" s="77"/>
+      <c r="DF27" s="77"/>
+      <c r="DG27" s="77"/>
+      <c r="DH27" s="77"/>
+      <c r="DI27" s="77"/>
+      <c r="DJ27" s="77"/>
+      <c r="DK27" s="77"/>
+      <c r="DL27" s="77"/>
+      <c r="DM27" s="77"/>
+      <c r="DN27" s="77"/>
+      <c r="DO27" s="77"/>
+      <c r="DP27" s="77"/>
+      <c r="DQ27" s="77"/>
+      <c r="DR27" s="77"/>
+      <c r="DS27" s="77"/>
+      <c r="DT27" s="77"/>
+      <c r="DU27" s="77"/>
+      <c r="DV27" s="77"/>
+      <c r="DW27" s="77"/>
+      <c r="DX27" s="77"/>
+      <c r="DY27" s="77"/>
+      <c r="DZ27" s="77"/>
+      <c r="EA27" s="77"/>
+      <c r="EB27" s="77"/>
+      <c r="EC27" s="77"/>
+      <c r="ED27" s="77"/>
+      <c r="EE27" s="77"/>
+      <c r="EF27" s="77"/>
+      <c r="EG27" s="77"/>
+      <c r="EH27" s="77"/>
+      <c r="EI27" s="77"/>
+      <c r="EJ27" s="77"/>
+      <c r="EK27" s="77"/>
+      <c r="EL27" s="77"/>
+      <c r="EM27" s="77"/>
+      <c r="EN27" s="77"/>
+      <c r="EO27" s="77"/>
+      <c r="EP27" s="77"/>
+      <c r="EQ27" s="77"/>
+      <c r="ER27" s="77"/>
+      <c r="ES27" s="77"/>
+      <c r="ET27" s="77"/>
+      <c r="EU27" s="77"/>
+      <c r="EV27" s="77"/>
+      <c r="EW27" s="77"/>
+      <c r="EX27" s="77"/>
+      <c r="EY27" s="77"/>
+      <c r="EZ27" s="77"/>
+      <c r="FA27" s="77"/>
+      <c r="FB27" s="77"/>
+      <c r="FC27" s="76"/>
+      <c r="FD27" s="76"/>
+      <c r="FE27" s="76"/>
+      <c r="FF27" s="76"/>
+      <c r="FG27" s="77"/>
+      <c r="FH27" s="77"/>
+      <c r="FI27" s="77"/>
+      <c r="FJ27" s="77"/>
+      <c r="FK27" s="77"/>
+      <c r="FL27" s="77"/>
+      <c r="FM27" s="77"/>
+      <c r="FN27" s="77"/>
+      <c r="FO27" s="77"/>
+      <c r="FP27" s="77"/>
+      <c r="FQ27" s="77"/>
+      <c r="FR27" s="77"/>
+      <c r="FS27" s="77"/>
+      <c r="FT27" s="77"/>
+      <c r="FU27" s="77"/>
+      <c r="FV27" s="77"/>
+      <c r="FW27" s="77"/>
+      <c r="FX27" s="77"/>
+      <c r="FY27" s="77"/>
+      <c r="FZ27" s="77"/>
+      <c r="GA27" s="77"/>
+      <c r="GB27" s="77"/>
+      <c r="GC27" s="77"/>
+      <c r="GD27" s="77"/>
+      <c r="GE27" s="77"/>
+      <c r="GF27" s="77"/>
+      <c r="GG27" s="77"/>
+      <c r="GH27" s="77"/>
+      <c r="GI27" s="77"/>
+      <c r="GJ27" s="77"/>
+      <c r="GK27" s="77"/>
+      <c r="GL27" s="77"/>
+      <c r="GM27" s="77"/>
+      <c r="GN27" s="77"/>
+      <c r="GO27" s="77"/>
+      <c r="GP27" s="77"/>
+      <c r="GQ27" s="77"/>
+      <c r="GR27" s="77"/>
+      <c r="GS27" s="77"/>
+      <c r="GT27" s="77"/>
+      <c r="GU27" s="77"/>
+      <c r="GV27" s="77"/>
+      <c r="GW27" s="77"/>
+      <c r="GX27" s="77"/>
+      <c r="GY27" s="77"/>
+      <c r="GZ27" s="77"/>
+      <c r="HA27" s="77"/>
+      <c r="HB27" s="77"/>
+      <c r="HC27" s="77"/>
+      <c r="HD27" s="77"/>
+      <c r="HE27" s="77"/>
+      <c r="HF27" s="77"/>
     </row>
-    <row r="28" s="71" customFormat="true" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="71" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="60" t="s">
         <v>172</v>
       </c>
       <c r="B28" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="0"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69"/>
@@ -32267,10 +32264,10 @@
       <c r="L28" s="69"/>
       <c r="M28" s="69"/>
       <c r="N28" s="61"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="81"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="80"/>
       <c r="S28" s="70" t="n">
         <v>0</v>
       </c>
@@ -32347,10 +32344,10 @@
       <c r="BP28" s="70"/>
       <c r="BQ28" s="70"/>
       <c r="BR28" s="70"/>
-      <c r="BS28" s="80"/>
-      <c r="BT28" s="81"/>
-      <c r="BU28" s="81"/>
-      <c r="BV28" s="81"/>
+      <c r="BS28" s="79"/>
+      <c r="BT28" s="80"/>
+      <c r="BU28" s="80"/>
+      <c r="BV28" s="80"/>
       <c r="BW28" s="70"/>
       <c r="BX28" s="70"/>
       <c r="BY28" s="70"/>
@@ -32387,10 +32384,10 @@
       <c r="CV28" s="70"/>
       <c r="CW28" s="70"/>
       <c r="CX28" s="70"/>
-      <c r="CY28" s="80"/>
-      <c r="CZ28" s="81"/>
-      <c r="DA28" s="81"/>
-      <c r="DB28" s="81"/>
+      <c r="CY28" s="79"/>
+      <c r="CZ28" s="80"/>
+      <c r="DA28" s="80"/>
+      <c r="DB28" s="80"/>
       <c r="DC28" s="70" t="n">
         <v>0</v>
       </c>
@@ -32507,10 +32504,10 @@
       <c r="EZ28" s="70"/>
       <c r="FA28" s="70"/>
       <c r="FB28" s="70"/>
-      <c r="FC28" s="80"/>
-      <c r="FD28" s="81"/>
-      <c r="FE28" s="81"/>
-      <c r="FF28" s="81"/>
+      <c r="FC28" s="79"/>
+      <c r="FD28" s="80"/>
+      <c r="FE28" s="80"/>
+      <c r="FF28" s="80"/>
       <c r="FG28" s="70" t="n">
         <v>0</v>
       </c>
@@ -32639,21 +32636,21 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C29" s="79" t="n">
+      <c r="C29" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="78" t="n">
         <f aca="false">IF(OR(H29&lt;=1,I29&lt;=1)=1,0,IF(OR(H29&lt;2,I29&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="47" t="s">
         <v>176</v>
       </c>
       <c r="G29" s="67" t="n">
@@ -32668,11 +32665,11 @@
         <f aca="false">COUNTIF(N29:HA29,1000)+COUNTIF(N29:HA29,2000)*0.5</f>
         <v>6.5</v>
       </c>
-      <c r="J29" s="48" t="str">
+      <c r="J29" s="47" t="str">
         <f aca="false">IF(K29=100,"AV",IF(K29=200,"AF",IF(K29=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K29" s="48" t="n">
+      <c r="K29" s="47" t="n">
         <f aca="false">IF(COUNTIF(N29:HA29,300)&gt;=1,300,IF(COUNTIF(N29:HA29,200)&gt;=1,200,IF(COUNTIF(N29:HA29,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -32750,7 +32747,7 @@
       <c r="AP29" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ29" s="82" t="n">
+      <c r="AQ29" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR29" s="70" t="n">
@@ -33219,21 +33216,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="79" t="n">
+      <c r="C30" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="78" t="n">
         <f aca="false">IF(OR(H30&lt;=1,I30&lt;=1)=1,0,IF(OR(H30&lt;2,I30&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G30" s="67" t="n">
@@ -33248,11 +33245,11 @@
         <f aca="false">COUNTIF(N30:HA30,1000)+COUNTIF(N30:HA30,2000)*0.5</f>
         <v>3.5</v>
       </c>
-      <c r="J30" s="48" t="str">
+      <c r="J30" s="47" t="str">
         <f aca="false">IF(K30=100,"AV",IF(K30=200,"AF",IF(K30=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K30" s="48" t="n">
+      <c r="K30" s="47" t="n">
         <f aca="false">IF(COUNTIF(N30:HA30,300)&gt;=1,300,IF(COUNTIF(N30:HA30,200)&gt;=1,200,IF(COUNTIF(N30:HA30,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -33330,7 +33327,7 @@
       <c r="AP30" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ30" s="82" t="n">
+      <c r="AQ30" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR30" s="70" t="n">
@@ -33799,21 +33796,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="14" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C31" s="79" t="n">
+      <c r="C31" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="78" t="n">
         <f aca="false">IF(OR(H31&lt;=1,I31&lt;=1)=1,0,IF(OR(H31&lt;2,I31&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D31" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G31" s="67" t="n">
@@ -33828,11 +33825,11 @@
         <f aca="false">COUNTIF(N31:HA31,1000)+COUNTIF(N31:HA31,2000)*0.5</f>
         <v>3</v>
       </c>
-      <c r="J31" s="48" t="str">
+      <c r="J31" s="47" t="str">
         <f aca="false">IF(K31=100,"AV",IF(K31=200,"AF",IF(K31=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K31" s="48" t="n">
+      <c r="K31" s="47" t="n">
         <f aca="false">IF(COUNTIF(N31:HA31,300)&gt;=1,300,IF(COUNTIF(N31:HA31,200)&gt;=1,200,IF(COUNTIF(N31:HA31,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -33910,7 +33907,7 @@
       <c r="AP31" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ31" s="82" t="n">
+      <c r="AQ31" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR31" s="70" t="n">
@@ -34379,21 +34376,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="79" t="n">
+      <c r="C32" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="78" t="n">
         <f aca="false">IF(OR(H32&lt;=1,I32&lt;=1)=1,0,IF(OR(H32&lt;2,I32&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D32" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G32" s="67" t="n">
@@ -34408,11 +34405,11 @@
         <f aca="false">COUNTIF(N32:HA32,1000)+COUNTIF(N32:HA32,2000)*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J32" s="48" t="str">
+      <c r="J32" s="47" t="str">
         <f aca="false">IF(K32=100,"AV",IF(K32=200,"AF",IF(K32=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K32" s="48" t="n">
+      <c r="K32" s="47" t="n">
         <f aca="false">IF(COUNTIF(N32:HA32,300)&gt;=1,300,IF(COUNTIF(N32:HA32,200)&gt;=1,200,IF(COUNTIF(N32:HA32,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -34490,7 +34487,7 @@
       <c r="AP32" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ32" s="82" t="n">
+      <c r="AQ32" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR32" s="70" t="n">
@@ -34966,15 +34963,15 @@
       <c r="B33" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="78"/>
       <c r="E33" s="0"/>
       <c r="F33" s="69"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
       <c r="N33" s="61"/>
@@ -35046,7 +35043,7 @@
       <c r="AP33" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="AQ33" s="82" t="n">
+      <c r="AQ33" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AR33" s="70" t="n">
@@ -35518,21 +35515,21 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="79" t="n">
+      <c r="C34" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="78" t="n">
         <f aca="false">IF(OR(H34&lt;=1,I34&lt;=1)=1,0,IF(OR(H34&lt;2,I34&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D34" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G34" s="67" t="n">
@@ -35547,11 +35544,11 @@
         <f aca="false">COUNTIF(N34:HA34,1000)+COUNTIF(N34:HA34,2000)*0.5</f>
         <v>14.5</v>
       </c>
-      <c r="J34" s="48" t="str">
+      <c r="J34" s="47" t="str">
         <f aca="false">IF(K34=100,"AV",IF(K34=200,"AF",IF(K34=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K34" s="48" t="n">
+      <c r="K34" s="47" t="n">
         <f aca="false">IF(COUNTIF(N34:HA34,300)&gt;=1,300,IF(COUNTIF(N34:HA34,200)&gt;=1,200,IF(COUNTIF(N34:HA34,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -35629,7 +35626,7 @@
       <c r="AP34" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ34" s="82" t="n">
+      <c r="AQ34" s="81" t="n">
         <v>2</v>
       </c>
       <c r="AR34" s="70" t="n">
@@ -36098,21 +36095,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="14" t="s">
         <v>187</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="79" t="n">
+      <c r="C35" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="78" t="n">
         <f aca="false">IF(OR(H35&lt;=1,I35&lt;=1)=1,0,IF(OR(H35&lt;2,I35&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D35" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="67" t="n">
@@ -36127,11 +36124,11 @@
         <f aca="false">COUNTIF(N35:HA35,1000)+COUNTIF(N35:HA35,2000)*0.5</f>
         <v>9.5</v>
       </c>
-      <c r="J35" s="48" t="str">
+      <c r="J35" s="47" t="str">
         <f aca="false">IF(K35=100,"AV",IF(K35=200,"AF",IF(K35=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K35" s="48" t="n">
+      <c r="K35" s="47" t="n">
         <f aca="false">IF(COUNTIF(N35:HA35,300)&gt;=1,300,IF(COUNTIF(N35:HA35,200)&gt;=1,200,IF(COUNTIF(N35:HA35,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -36209,7 +36206,7 @@
       <c r="AP35" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ35" s="82" t="n">
+      <c r="AQ35" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR35" s="70" t="n">
@@ -36678,21 +36675,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="14" t="s">
         <v>189</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="79" t="n">
+      <c r="C36" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="78" t="n">
         <f aca="false">IF(OR(H36&lt;=1,I36&lt;=1)=1,0,IF(OR(H36&lt;2,I36&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="67" t="n">
@@ -36707,11 +36704,11 @@
         <f aca="false">COUNTIF(N36:HA36,1000)+COUNTIF(N36:HA36,2000)*0.5</f>
         <v>9</v>
       </c>
-      <c r="J36" s="48" t="str">
+      <c r="J36" s="47" t="str">
         <f aca="false">IF(K36=100,"AV",IF(K36=200,"AF",IF(K36=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K36" s="48" t="n">
+      <c r="K36" s="47" t="n">
         <f aca="false">IF(COUNTIF(N36:HA36,300)&gt;=1,300,IF(COUNTIF(N36:HA36,200)&gt;=1,200,IF(COUNTIF(N36:HA36,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -36789,7 +36786,7 @@
       <c r="AP36" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ36" s="82" t="n">
+      <c r="AQ36" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR36" s="70" t="n">
@@ -37258,21 +37255,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="14" t="s">
         <v>191</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="79" t="n">
+      <c r="C37" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="78" t="n">
         <f aca="false">IF(OR(H37&lt;=1,I37&lt;=1)=1,0,IF(OR(H37&lt;2,I37&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D37" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G37" s="67" t="n">
@@ -37287,11 +37284,11 @@
         <f aca="false">COUNTIF(N37:HA37,1000)+COUNTIF(N37:HA37,2000)*0.5</f>
         <v>14</v>
       </c>
-      <c r="J37" s="48" t="str">
+      <c r="J37" s="47" t="str">
         <f aca="false">IF(K37=100,"AV",IF(K37=200,"AF",IF(K37=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K37" s="48" t="n">
+      <c r="K37" s="47" t="n">
         <f aca="false">IF(COUNTIF(N37:HA37,300)&gt;=1,300,IF(COUNTIF(N37:HA37,200)&gt;=1,200,IF(COUNTIF(N37:HA37,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -37369,7 +37366,7 @@
       <c r="AP37" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ37" s="82" t="n">
+      <c r="AQ37" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR37" s="70" t="n">
@@ -37838,21 +37835,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="14" t="s">
         <v>193</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="79" t="n">
+      <c r="C38" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="78" t="n">
         <f aca="false">IF(OR(H38&lt;=1,I38&lt;=1)=1,0,IF(OR(H38&lt;2,I38&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D38" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G38" s="67" t="n">
@@ -37867,11 +37864,11 @@
         <f aca="false">COUNTIF(N38:HA38,1000)+COUNTIF(N38:HA38,2000)*0.5</f>
         <v>14.5</v>
       </c>
-      <c r="J38" s="48" t="str">
+      <c r="J38" s="47" t="str">
         <f aca="false">IF(K38=100,"AV",IF(K38=200,"AF",IF(K38=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K38" s="48" t="n">
+      <c r="K38" s="47" t="n">
         <f aca="false">IF(COUNTIF(N38:HA38,300)&gt;=1,300,IF(COUNTIF(N38:HA38,200)&gt;=1,200,IF(COUNTIF(N38:HA38,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -37949,7 +37946,7 @@
       <c r="AP38" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ38" s="82" t="n">
+      <c r="AQ38" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR38" s="70" t="n">
@@ -38418,21 +38415,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="14" t="s">
         <v>195</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C39" s="79" t="n">
+      <c r="C39" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="78" t="n">
         <f aca="false">IF(OR(H39&lt;=1,I39&lt;=1)=1,0,IF(OR(H39&lt;2,I39&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D39" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G39" s="67" t="n">
@@ -38447,11 +38444,11 @@
         <f aca="false">COUNTIF(N39:HA39,1000)+COUNTIF(N39:HA39,2000)*0.5</f>
         <v>14</v>
       </c>
-      <c r="J39" s="48" t="str">
+      <c r="J39" s="47" t="str">
         <f aca="false">IF(K39=100,"AV",IF(K39=200,"AF",IF(K39=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K39" s="48" t="n">
+      <c r="K39" s="47" t="n">
         <f aca="false">IF(COUNTIF(N39:HA39,300)&gt;=1,300,IF(COUNTIF(N39:HA39,200)&gt;=1,200,IF(COUNTIF(N39:HA39,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -38529,7 +38526,7 @@
       <c r="AP39" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ39" s="82" t="n">
+      <c r="AQ39" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR39" s="70" t="n">
@@ -38998,21 +38995,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="14" t="s">
         <v>197</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="79" t="n">
+      <c r="C40" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="78" t="n">
         <f aca="false">IF(OR(H40&lt;=1,I40&lt;=1)=1,0,IF(OR(H40&lt;2,I40&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D40" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G40" s="67" t="n">
@@ -39027,11 +39024,11 @@
         <f aca="false">COUNTIF(N40:HA40,1000)+COUNTIF(N40:HA40,2000)*0.5</f>
         <v>8.5</v>
       </c>
-      <c r="J40" s="48" t="str">
+      <c r="J40" s="47" t="str">
         <f aca="false">IF(K40=100,"AV",IF(K40=200,"AF",IF(K40=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K40" s="48" t="n">
+      <c r="K40" s="47" t="n">
         <f aca="false">IF(COUNTIF(N40:HA40,300)&gt;=1,300,IF(COUNTIF(N40:HA40,200)&gt;=1,200,IF(COUNTIF(N40:HA40,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -39109,7 +39106,7 @@
       <c r="AP40" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ40" s="82" t="n">
+      <c r="AQ40" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR40" s="70" t="n">
@@ -39578,21 +39575,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="79" t="n">
+      <c r="C41" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="78" t="n">
         <f aca="false">IF(OR(H41&lt;=1,I41&lt;=1)=1,0,IF(OR(H41&lt;2,I41&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G41" s="67" t="n">
@@ -39607,11 +39604,11 @@
         <f aca="false">COUNTIF(N41:HA41,1000)+COUNTIF(N41:HA41,2000)*0.5</f>
         <v>11</v>
       </c>
-      <c r="J41" s="48" t="str">
+      <c r="J41" s="47" t="str">
         <f aca="false">IF(K41=100,"AV",IF(K41=200,"AF",IF(K41=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K41" s="48" t="n">
+      <c r="K41" s="47" t="n">
         <f aca="false">IF(COUNTIF(N41:HA41,300)&gt;=1,300,IF(COUNTIF(N41:HA41,200)&gt;=1,200,IF(COUNTIF(N41:HA41,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -39689,7 +39686,7 @@
       <c r="AP41" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ41" s="82" t="n">
+      <c r="AQ41" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR41" s="70" t="n">
@@ -40158,22 +40155,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="42" s="71" customFormat="true" ht="44.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="71" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="60" t="s">
         <v>201</v>
       </c>
       <c r="B42" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="78"/>
       <c r="E42" s="0"/>
       <c r="F42" s="69"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67"/>
       <c r="I42" s="67"/>
-      <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="67" t="n">
         <f aca="false">K42-E42</f>
         <v>0</v>
@@ -40248,7 +40245,7 @@
       <c r="AP42" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="AQ42" s="82" t="n">
+      <c r="AQ42" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AR42" s="70" t="n">
@@ -40720,21 +40717,21 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="54.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
         <v>203</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="79" t="n">
+      <c r="C43" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="78" t="n">
         <f aca="false">IF(OR(H43&lt;=1,I43&lt;=1)=1,0,IF(OR(H43&lt;2,I43&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D43" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>205</v>
       </c>
       <c r="G43" s="67" t="n">
@@ -40749,11 +40746,11 @@
         <f aca="false">COUNTIF(N43:HA43,1000)+COUNTIF(N43:HA43,2000)*0.5</f>
         <v>10.5</v>
       </c>
-      <c r="J43" s="48" t="str">
+      <c r="J43" s="47" t="str">
         <f aca="false">IF(K43=100,"AV",IF(K43=200,"AF",IF(K43=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K43" s="48" t="n">
+      <c r="K43" s="47" t="n">
         <f aca="false">IF(COUNTIF(N43:HA43,300)&gt;=1,300,IF(COUNTIF(N43:HA43,200)&gt;=1,200,IF(COUNTIF(N43:HA43,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -40831,7 +40828,7 @@
       <c r="AP43" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ43" s="82" t="n">
+      <c r="AQ43" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR43" s="70" t="n">
@@ -41300,21 +41297,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
         <v>206</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="79" t="n">
+      <c r="C44" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="78" t="n">
         <f aca="false">IF(OR(H44&lt;=1,I44&lt;=1)=1,0,IF(OR(H44&lt;2,I44&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G44" s="67" t="n">
@@ -41329,11 +41326,11 @@
         <f aca="false">COUNTIF(N44:HA44,1000)+COUNTIF(N44:HA44,2000)*0.5</f>
         <v>3.5</v>
       </c>
-      <c r="J44" s="48" t="str">
+      <c r="J44" s="47" t="str">
         <f aca="false">IF(K44=100,"AV",IF(K44=200,"AF",IF(K44=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K44" s="48" t="n">
+      <c r="K44" s="47" t="n">
         <f aca="false">IF(COUNTIF(N44:HA44,300)&gt;=1,300,IF(COUNTIF(N44:HA44,200)&gt;=1,200,IF(COUNTIF(N44:HA44,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -41411,7 +41408,7 @@
       <c r="AP44" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ44" s="82" t="n">
+      <c r="AQ44" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR44" s="70" t="n">
@@ -41887,12 +41884,12 @@
       <c r="B45" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="79" t="n">
+      <c r="C45" s="47"/>
+      <c r="D45" s="78" t="n">
         <f aca="false">IF(OR(H45&lt;=1,I45&lt;=1)=1,0,IF(OR(H45&lt;2,I45&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="67" t="n">
         <f aca="false">COUNTIF(N45:HA45,1)+COUNTIF(N45:HA45,2)*0.5</f>
         <v>8</v>
@@ -41905,11 +41902,11 @@
         <f aca="false">COUNTIF(N45:HA45,1000)+COUNTIF(N45:HA45,2000)*0.5</f>
         <v>2</v>
       </c>
-      <c r="J45" s="48" t="str">
+      <c r="J45" s="47" t="str">
         <f aca="false">IF(K45=100,"AV",IF(K45=200,"AF",IF(K45=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K45" s="48" t="n">
+      <c r="K45" s="47" t="n">
         <f aca="false">IF(COUNTIF(N45:HA45,300)&gt;=1,300,IF(COUNTIF(N45:HA45,200)&gt;=1,200,IF(COUNTIF(N45:HA45,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -41987,7 +41984,7 @@
       <c r="AP45" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ45" s="82" t="n">
+      <c r="AQ45" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR45" s="70" t="n">
@@ -42457,20 +42454,20 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="C46" s="79" t="n">
+      <c r="C46" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="78" t="n">
         <f aca="false">IF(OR(H46&lt;=1,I46&lt;=1)=1,0,IF(OR(H46&lt;2,I46&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D46" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="48"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="67" t="n">
         <f aca="false">COUNTIF(N46:HA46,1)+COUNTIF(N46:HA46,2)*0.5</f>
         <v>12.5</v>
@@ -42483,11 +42480,11 @@
         <f aca="false">COUNTIF(N46:HA46,1000)+COUNTIF(N46:HA46,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J46" s="48" t="str">
+      <c r="J46" s="47" t="str">
         <f aca="false">IF(K46=100,"AV",IF(K46=200,"AF",IF(K46=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K46" s="48" t="n">
+      <c r="K46" s="47" t="n">
         <f aca="false">IF(COUNTIF(N46:HA46,300)&gt;=1,300,IF(COUNTIF(N46:HA46,200)&gt;=1,200,IF(COUNTIF(N46:HA46,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -42496,7 +42493,7 @@
         <v>300</v>
       </c>
       <c r="M46" s="67"/>
-      <c r="N46" s="84"/>
+      <c r="N46" s="83"/>
       <c r="O46" s="68" t="n">
         <v>1</v>
       </c>
@@ -42565,7 +42562,7 @@
       <c r="AP46" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ46" s="82" t="n">
+      <c r="AQ46" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR46" s="70" t="n">
@@ -43035,20 +43032,20 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C47" s="79" t="n">
+      <c r="C47" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="78" t="n">
         <f aca="false">IF(OR(H47&lt;=1,I47&lt;=1)=1,0,IF(OR(H47&lt;2,I47&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D47" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="48"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="67" t="n">
         <f aca="false">COUNTIF(N47:HA47,1)+COUNTIF(N47:HA47,2)*0.5</f>
         <v>2</v>
@@ -43061,11 +43058,11 @@
         <f aca="false">COUNTIF(N47:HA47,1000)+COUNTIF(N47:HA47,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J47" s="48" t="str">
+      <c r="J47" s="47" t="str">
         <f aca="false">IF(K47=100,"AV",IF(K47=200,"AF",IF(K47=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K47" s="48" t="n">
+      <c r="K47" s="47" t="n">
         <f aca="false">IF(COUNTIF(N47:HA47,300)&gt;=1,300,IF(COUNTIF(N47:HA47,200)&gt;=1,200,IF(COUNTIF(N47:HA47,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -43074,7 +43071,7 @@
         <v>200</v>
       </c>
       <c r="M47" s="67"/>
-      <c r="N47" s="84"/>
+      <c r="N47" s="83"/>
       <c r="O47" s="68" t="n">
         <v>1</v>
       </c>
@@ -43143,7 +43140,7 @@
       <c r="AP47" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ47" s="82" t="n">
+      <c r="AQ47" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR47" s="70" t="n">
@@ -43613,20 +43610,20 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B48" s="84" t="s">
+      <c r="B48" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="79" t="n">
+      <c r="C48" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="78" t="n">
         <f aca="false">IF(OR(H48&lt;=1,I48&lt;=1)=1,0,IF(OR(H48&lt;2,I48&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
-      <c r="D48" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="48"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="67" t="n">
         <f aca="false">COUNTIF(N48:HA48,1)+COUNTIF(N48:HA48,2)*0.5</f>
         <v>2.5</v>
@@ -43639,11 +43636,11 @@
         <f aca="false">COUNTIF(N48:HA48,1000)+COUNTIF(N48:HA48,2000)*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="J48" s="48" t="str">
+      <c r="J48" s="47" t="str">
         <f aca="false">IF(K48=100,"AV",IF(K48=200,"AF",IF(K48=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K48" s="48" t="n">
+      <c r="K48" s="47" t="n">
         <f aca="false">IF(COUNTIF(N48:HA48,300)&gt;=1,300,IF(COUNTIF(N48:HA48,200)&gt;=1,200,IF(COUNTIF(N48:HA48,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -43652,7 +43649,7 @@
         <v>300</v>
       </c>
       <c r="M48" s="67"/>
-      <c r="N48" s="84"/>
+      <c r="N48" s="83"/>
       <c r="O48" s="34" t="n">
         <v>1</v>
       </c>
@@ -43721,7 +43718,7 @@
       <c r="AP48" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ48" s="82" t="n">
+      <c r="AQ48" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR48" s="70" t="n">
@@ -44191,20 +44188,20 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="84" t="s">
+      <c r="B49" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="79" t="n">
+      <c r="C49" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="78" t="n">
         <f aca="false">IF(OR(H49&lt;=1,I49&lt;=1)=1,0,IF(OR(H49&lt;2,I49&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D49" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F49" s="48"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="67" t="n">
         <f aca="false">COUNTIF(N49:HA49,1)+COUNTIF(N49:HA49,2)*0.5</f>
         <v>7.5</v>
@@ -44217,11 +44214,11 @@
         <f aca="false">COUNTIF(N49:HA49,1000)+COUNTIF(N49:HA49,2000)*0.5</f>
         <v>3.5</v>
       </c>
-      <c r="J49" s="48" t="str">
+      <c r="J49" s="47" t="str">
         <f aca="false">IF(K49=100,"AV",IF(K49=200,"AF",IF(K49=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K49" s="48" t="n">
+      <c r="K49" s="47" t="n">
         <f aca="false">IF(COUNTIF(N49:HA49,300)&gt;=1,300,IF(COUNTIF(N49:HA49,200)&gt;=1,200,IF(COUNTIF(N49:HA49,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -44230,7 +44227,7 @@
         <v>300</v>
       </c>
       <c r="M49" s="67"/>
-      <c r="N49" s="84"/>
+      <c r="N49" s="83"/>
       <c r="O49" s="68" t="n">
         <v>1</v>
       </c>
@@ -44299,7 +44296,7 @@
       <c r="AP49" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ49" s="82" t="n">
+      <c r="AQ49" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR49" s="70" t="n">
@@ -44769,20 +44766,20 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="B50" s="84" t="s">
+      <c r="B50" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="C50" s="79" t="n">
+      <c r="C50" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="78" t="n">
         <f aca="false">IF(OR(H50&lt;=1,I50&lt;=1)=1,0,IF(OR(H50&lt;2,I50&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D50" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F50" s="48"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="67" t="n">
         <f aca="false">COUNTIF(N50:HA50,1)+COUNTIF(N50:HA50,2)*0.5</f>
         <v>7.5</v>
@@ -44795,11 +44792,11 @@
         <f aca="false">COUNTIF(N50:HA50,1000)+COUNTIF(N50:HA50,2000)*0.5</f>
         <v>3</v>
       </c>
-      <c r="J50" s="48" t="str">
+      <c r="J50" s="47" t="str">
         <f aca="false">IF(K50=100,"AV",IF(K50=200,"AF",IF(K50=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K50" s="48" t="n">
+      <c r="K50" s="47" t="n">
         <f aca="false">IF(COUNTIF(N50:HA50,300)&gt;=1,300,IF(COUNTIF(N50:HA50,200)&gt;=1,200,IF(COUNTIF(N50:HA50,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -44808,7 +44805,7 @@
         <v>200</v>
       </c>
       <c r="M50" s="67"/>
-      <c r="N50" s="84"/>
+      <c r="N50" s="83"/>
       <c r="O50" s="68" t="n">
         <v>1</v>
       </c>
@@ -44877,7 +44874,7 @@
       <c r="AP50" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ50" s="82" t="n">
+      <c r="AQ50" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR50" s="70" t="n">
@@ -45335,20 +45332,20 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="82" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="84" t="s">
+      <c r="B51" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="79" t="n">
+      <c r="C51" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="78" t="n">
         <f aca="false">IF(OR(H51&lt;=1,I51&lt;=1)=1,0,IF(OR(H51&lt;2,I51&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D51" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="48"/>
+      <c r="F51" s="47"/>
       <c r="G51" s="67" t="n">
         <f aca="false">COUNTIF(N51:HA51,1)+COUNTIF(N51:HA51,2)*0.5</f>
         <v>7.5</v>
@@ -45361,11 +45358,11 @@
         <f aca="false">COUNTIF(N51:HA51,1000)+COUNTIF(N51:HA51,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J51" s="48" t="str">
+      <c r="J51" s="47" t="str">
         <f aca="false">IF(K51=100,"AV",IF(K51=200,"AF",IF(K51=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K51" s="48" t="n">
+      <c r="K51" s="47" t="n">
         <f aca="false">IF(COUNTIF(N51:HA51,300)&gt;=1,300,IF(COUNTIF(N51:HA51,200)&gt;=1,200,IF(COUNTIF(N51:HA51,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -45374,7 +45371,7 @@
         <v>300</v>
       </c>
       <c r="M51" s="67"/>
-      <c r="N51" s="84"/>
+      <c r="N51" s="83"/>
       <c r="O51" s="68" t="n">
         <v>1</v>
       </c>
@@ -45443,7 +45440,7 @@
       <c r="AP51" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ51" s="82" t="n">
+      <c r="AQ51" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR51" s="70" t="n">
@@ -45913,20 +45910,20 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="84" t="s">
+      <c r="B52" s="83" t="s">
         <v>223</v>
       </c>
-      <c r="C52" s="79" t="n">
+      <c r="C52" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="78" t="n">
         <f aca="false">IF(OR(H52&lt;=1,I52&lt;=1)=1,0,IF(OR(H52&lt;2,I52&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
-      <c r="D52" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52" s="48"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="67" t="n">
         <f aca="false">COUNTIF(N52:HA52,1)+COUNTIF(N52:HA52,2)*0.5</f>
         <v>6.5</v>
@@ -45939,11 +45936,11 @@
         <f aca="false">COUNTIF(N52:HA52,1000)+COUNTIF(N52:HA52,2000)*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="J52" s="48" t="str">
+      <c r="J52" s="47" t="str">
         <f aca="false">IF(K52=100,"AV",IF(K52=200,"AF",IF(K52=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K52" s="48" t="n">
+      <c r="K52" s="47" t="n">
         <f aca="false">IF(COUNTIF(N52:HA52,300)&gt;=1,300,IF(COUNTIF(N52:HA52,200)&gt;=1,200,IF(COUNTIF(N52:HA52,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -45952,7 +45949,7 @@
         <v>300</v>
       </c>
       <c r="M52" s="67"/>
-      <c r="N52" s="84"/>
+      <c r="N52" s="83"/>
       <c r="O52" s="68" t="n">
         <v>3</v>
       </c>
@@ -46021,7 +46018,7 @@
       <c r="AP52" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ52" s="82" t="n">
+      <c r="AQ52" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR52" s="70" t="n">
@@ -46491,20 +46488,20 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B53" s="84" t="s">
+      <c r="B53" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="C53" s="79" t="n">
+      <c r="C53" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="78" t="n">
         <f aca="false">IF(OR(H53&lt;=1,I53&lt;=1)=1,0,IF(OR(H53&lt;2,I53&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D53" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="67" t="n">
         <f aca="false">COUNTIF(N53:HA53,1)+COUNTIF(N53:HA53,2)*0.5</f>
         <v>8.5</v>
@@ -46517,11 +46514,11 @@
         <f aca="false">COUNTIF(N53:HA53,1000)+COUNTIF(N53:HA53,2000)*0.5</f>
         <v>2</v>
       </c>
-      <c r="J53" s="48" t="str">
+      <c r="J53" s="47" t="str">
         <f aca="false">IF(K53=100,"AV",IF(K53=200,"AF",IF(K53=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K53" s="48" t="n">
+      <c r="K53" s="47" t="n">
         <f aca="false">IF(COUNTIF(N53:HA53,300)&gt;=1,300,IF(COUNTIF(N53:HA53,200)&gt;=1,200,IF(COUNTIF(N53:HA53,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -46530,7 +46527,7 @@
         <v>100</v>
       </c>
       <c r="M53" s="67"/>
-      <c r="N53" s="84"/>
+      <c r="N53" s="83"/>
       <c r="O53" s="68" t="n">
         <v>1</v>
       </c>
@@ -46599,7 +46596,7 @@
       <c r="AP53" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ53" s="82" t="n">
+      <c r="AQ53" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR53" s="70" t="n">
@@ -47069,20 +47066,20 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="84" t="s">
+      <c r="B54" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="79" t="n">
+      <c r="C54" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="78" t="n">
         <f aca="false">IF(OR(H54&lt;=1,I54&lt;=1)=1,0,IF(OR(H54&lt;2,I54&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D54" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="48"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="67" t="n">
         <f aca="false">COUNTIF(N54:HA54,1)+COUNTIF(N54:HA54,2)*0.5</f>
         <v>8</v>
@@ -47095,11 +47092,11 @@
         <f aca="false">COUNTIF(N54:HA54,1000)+COUNTIF(N54:HA54,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J54" s="48" t="str">
+      <c r="J54" s="47" t="str">
         <f aca="false">IF(K54=100,"AV",IF(K54=200,"AF",IF(K54=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K54" s="48" t="n">
+      <c r="K54" s="47" t="n">
         <f aca="false">IF(COUNTIF(N54:HA54,300)&gt;=1,300,IF(COUNTIF(N54:HA54,200)&gt;=1,200,IF(COUNTIF(N54:HA54,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -47108,7 +47105,7 @@
         <v>100</v>
       </c>
       <c r="M54" s="67"/>
-      <c r="N54" s="84"/>
+      <c r="N54" s="83"/>
       <c r="O54" s="68" t="n">
         <v>1</v>
       </c>
@@ -47177,7 +47174,7 @@
       <c r="AP54" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ54" s="82" t="n">
+      <c r="AQ54" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR54" s="70" t="n">
@@ -47647,20 +47644,20 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="B55" s="84" t="s">
+      <c r="B55" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="79" t="n">
+      <c r="C55" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="78" t="n">
         <f aca="false">IF(OR(H55&lt;=1,I55&lt;=1)=1,0,IF(OR(H55&lt;2,I55&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
-      <c r="D55" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="48"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="67" t="n">
         <f aca="false">COUNTIF(N55:HA55,1)+COUNTIF(N55:HA55,2)*0.5</f>
         <v>7</v>
@@ -47673,11 +47670,11 @@
         <f aca="false">COUNTIF(N55:HA55,1000)+COUNTIF(N55:HA55,2000)*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="J55" s="48" t="str">
+      <c r="J55" s="47" t="str">
         <f aca="false">IF(K55=100,"AV",IF(K55=200,"AF",IF(K55=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K55" s="48" t="n">
+      <c r="K55" s="47" t="n">
         <f aca="false">IF(COUNTIF(N55:HA55,300)&gt;=1,300,IF(COUNTIF(N55:HA55,200)&gt;=1,200,IF(COUNTIF(N55:HA55,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -47686,7 +47683,7 @@
         <v>200</v>
       </c>
       <c r="M55" s="67"/>
-      <c r="N55" s="84"/>
+      <c r="N55" s="83"/>
       <c r="O55" s="68" t="n">
         <v>1</v>
       </c>
@@ -47755,7 +47752,7 @@
       <c r="AP55" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ55" s="82" t="n">
+      <c r="AQ55" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR55" s="70" t="n">
@@ -48224,21 +48221,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="25.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="83" t="s">
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="84" t="s">
+      <c r="B56" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C56" s="79" t="n">
+      <c r="C56" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="78" t="n">
         <f aca="false">IF(OR(H56&lt;=1,I56&lt;=1)=1,0,IF(OR(H56&lt;2,I56&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D56" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F56" s="48"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="67" t="n">
         <f aca="false">COUNTIF(N56:HA56,1)+COUNTIF(N56:HA56,2)*0.5</f>
         <v>5.5</v>
@@ -48251,11 +48248,11 @@
         <f aca="false">COUNTIF(N56:HA56,1000)+COUNTIF(N56:HA56,2000)*0.5</f>
         <v>0</v>
       </c>
-      <c r="J56" s="48" t="str">
+      <c r="J56" s="47" t="str">
         <f aca="false">IF(K56=100,"AV",IF(K56=200,"AF",IF(K56=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K56" s="48" t="n">
+      <c r="K56" s="47" t="n">
         <f aca="false">IF(COUNTIF(N56:HA56,300)&gt;=1,300,IF(COUNTIF(N56:HA56,200)&gt;=1,200,IF(COUNTIF(N56:HA56,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -48264,7 +48261,7 @@
         <v>100</v>
       </c>
       <c r="M56" s="67"/>
-      <c r="N56" s="84"/>
+      <c r="N56" s="83"/>
       <c r="O56" s="68" t="n">
         <v>1</v>
       </c>
@@ -48333,7 +48330,7 @@
       <c r="AP56" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ56" s="82" t="n">
+      <c r="AQ56" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR56" s="70" t="n">
@@ -48802,21 +48799,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="83" t="s">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="84" t="s">
+      <c r="B57" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="79" t="n">
+      <c r="C57" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="78" t="n">
         <f aca="false">IF(OR(H57&lt;=1,I57&lt;=1)=1,0,IF(OR(H57&lt;2,I57&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D57" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="48"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="67" t="n">
         <f aca="false">COUNTIF(N57:HA57,1)+COUNTIF(N57:HA57,2)*0.5</f>
         <v>2.5</v>
@@ -48829,11 +48826,11 @@
         <f aca="false">COUNTIF(N57:HA57,1000)+COUNTIF(N57:HA57,2000)*0.5</f>
         <v>0</v>
       </c>
-      <c r="J57" s="48" t="str">
+      <c r="J57" s="47" t="str">
         <f aca="false">IF(K57=100,"AV",IF(K57=200,"AF",IF(K57=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K57" s="48" t="n">
+      <c r="K57" s="47" t="n">
         <f aca="false">IF(COUNTIF(N57:HA57,300)&gt;=1,300,IF(COUNTIF(N57:HA57,200)&gt;=1,200,IF(COUNTIF(N57:HA57,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -48842,7 +48839,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="67"/>
-      <c r="N57" s="84"/>
+      <c r="N57" s="83"/>
       <c r="O57" s="68" t="n">
         <v>1</v>
       </c>
@@ -48911,7 +48908,7 @@
       <c r="AP57" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ57" s="82" t="n">
+      <c r="AQ57" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR57" s="70" t="n">
@@ -49387,14 +49384,14 @@
       <c r="B58" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="79" t="n">
+      <c r="C58" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="78" t="n">
         <f aca="false">IF(OR(H58&lt;=1,I58&lt;=1)=1,0,IF(OR(H58&lt;2,I58&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D58" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F58" s="48"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="67" t="n">
         <f aca="false">COUNTIF(N58:HA58,1)+COUNTIF(N58:HA58,2)*0.5</f>
         <v>10.5</v>
@@ -49407,11 +49404,11 @@
         <f aca="false">COUNTIF(N58:HA58,1000)+COUNTIF(N58:HA58,2000)*0.5</f>
         <v>2</v>
       </c>
-      <c r="J58" s="48" t="str">
+      <c r="J58" s="47" t="str">
         <f aca="false">IF(K58=100,"AV",IF(K58=200,"AF",IF(K58=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K58" s="48" t="n">
+      <c r="K58" s="47" t="n">
         <f aca="false">IF(COUNTIF(N58:HA58,300)&gt;=1,300,IF(COUNTIF(N58:HA58,200)&gt;=1,200,IF(COUNTIF(N58:HA58,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -49489,7 +49486,7 @@
       <c r="AP58" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ58" s="82" t="n">
+      <c r="AQ58" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR58" s="70" t="n">
@@ -49958,21 +49955,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="s">
         <v>236</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="79" t="n">
+      <c r="C59" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="78" t="n">
         <f aca="false">IF(OR(H59&lt;=1,I59&lt;=1)=1,0,IF(OR(H59&lt;2,I59&lt;2)=1,1,2))</f>
         <v>1</v>
       </c>
-      <c r="D59" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" s="48"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="67" t="n">
         <f aca="false">COUNTIF(N59:HA59,1)+COUNTIF(N59:HA59,2)*0.5</f>
         <v>5</v>
@@ -49985,11 +49982,11 @@
         <f aca="false">COUNTIF(N59:HA59,1000)+COUNTIF(N59:HA59,2000)*0.5</f>
         <v>1.5</v>
       </c>
-      <c r="J59" s="48" t="str">
+      <c r="J59" s="47" t="str">
         <f aca="false">IF(K59=100,"AV",IF(K59=200,"AF",IF(K59=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K59" s="48" t="n">
+      <c r="K59" s="47" t="n">
         <f aca="false">IF(COUNTIF(N59:HA59,300)&gt;=1,300,IF(COUNTIF(N59:HA59,200)&gt;=1,200,IF(COUNTIF(N59:HA59,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -50067,7 +50064,7 @@
       <c r="AP59" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ59" s="82" t="n">
+      <c r="AQ59" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR59" s="70" t="n">
@@ -50536,21 +50533,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="s">
         <v>238</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="79" t="n">
+      <c r="C60" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="78" t="n">
         <f aca="false">IF(OR(H60&lt;=1,I60&lt;=1)=1,0,IF(OR(H60&lt;2,I60&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D60" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="48"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="67" t="n">
         <f aca="false">COUNTIF(N60:HA60,1)+COUNTIF(N60:HA60,2)*0.5</f>
         <v>9</v>
@@ -50563,11 +50560,11 @@
         <f aca="false">COUNTIF(N60:HA60,1000)+COUNTIF(N60:HA60,2000)*0.5</f>
         <v>4</v>
       </c>
-      <c r="J60" s="48" t="str">
+      <c r="J60" s="47" t="str">
         <f aca="false">IF(K60=100,"AV",IF(K60=200,"AF",IF(K60=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K60" s="48" t="n">
+      <c r="K60" s="47" t="n">
         <f aca="false">IF(COUNTIF(N60:HA60,300)&gt;=1,300,IF(COUNTIF(N60:HA60,200)&gt;=1,200,IF(COUNTIF(N60:HA60,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -50645,7 +50642,7 @@
       <c r="AP60" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ60" s="82" t="n">
+      <c r="AQ60" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR60" s="70" t="n">
@@ -51114,21 +51111,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="s">
         <v>240</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="79" t="n">
+      <c r="C61" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="78" t="n">
         <f aca="false">IF(OR(H61&lt;=1,I61&lt;=1)=1,0,IF(OR(H61&lt;2,I61&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="48"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="67" t="n">
         <f aca="false">COUNTIF(N61:HA61,1)+COUNTIF(N61:HA61,2)*0.5</f>
         <v>20</v>
@@ -51141,11 +51138,11 @@
         <f aca="false">COUNTIF(N61:HA61,1000)+COUNTIF(N61:HA61,2000)*0.5</f>
         <v>10</v>
       </c>
-      <c r="J61" s="48" t="str">
+      <c r="J61" s="47" t="str">
         <f aca="false">IF(K61=100,"AV",IF(K61=200,"AF",IF(K61=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K61" s="48" t="n">
+      <c r="K61" s="47" t="n">
         <f aca="false">IF(COUNTIF(N61:HA61,300)&gt;=1,300,IF(COUNTIF(N61:HA61,200)&gt;=1,200,IF(COUNTIF(N61:HA61,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -51223,7 +51220,7 @@
       <c r="AP61" s="70" t="n">
         <v>3000</v>
       </c>
-      <c r="AQ61" s="82" t="n">
+      <c r="AQ61" s="81" t="n">
         <v>3</v>
       </c>
       <c r="AR61" s="70" t="n">
@@ -51692,22 +51689,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="62" s="71" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="71" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="60" t="s">
         <v>242</v>
       </c>
       <c r="B62" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="79"/>
-      <c r="D62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="78"/>
       <c r="E62" s="0"/>
       <c r="F62" s="69"/>
       <c r="G62" s="67"/>
       <c r="H62" s="67"/>
       <c r="I62" s="67"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
       <c r="L62" s="67"/>
       <c r="M62" s="67"/>
       <c r="N62" s="61"/>
@@ -51779,7 +51776,7 @@
       <c r="AP62" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="AQ62" s="82" t="n">
+      <c r="AQ62" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AR62" s="70" t="n">
@@ -52251,21 +52248,21 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="s">
         <v>244</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="79" t="n">
+      <c r="C63" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="78" t="n">
         <f aca="false">IF(OR(H63&lt;=1,I63&lt;=1)=1,0,IF(OR(H63&lt;2,I63&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D63" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="48" t="s">
+      <c r="F63" s="47" t="s">
         <v>246</v>
       </c>
       <c r="G63" s="67" t="n">
@@ -52280,11 +52277,11 @@
         <f aca="false">COUNTIF(N63:HA63,1000)+COUNTIF(N63:HA63,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J63" s="48" t="str">
+      <c r="J63" s="47" t="str">
         <f aca="false">IF(K63=100,"AV",IF(K63=200,"AF",IF(K63=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K63" s="48" t="n">
+      <c r="K63" s="47" t="n">
         <f aca="false">IF(COUNTIF(N63:HA63,300)&gt;=1,300,IF(COUNTIF(N63:HA63,200)&gt;=1,200,IF(COUNTIF(N63:HA63,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -52345,25 +52342,25 @@
       <c r="AM63" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN63" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO63" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP63" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ63" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR63" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS63" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT63" s="82" t="n">
+      <c r="AN63" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO63" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP63" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ63" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS63" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT63" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU63" s="41" t="n">
@@ -52486,16 +52483,16 @@
       <c r="CT63" s="41" t="n">
         <v>3000</v>
       </c>
-      <c r="CU63" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV63" s="85" t="n">
-        <v>30</v>
-      </c>
-      <c r="CW63" s="85" t="n">
-        <v>400</v>
-      </c>
-      <c r="CX63" s="85" t="n">
+      <c r="CU63" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV63" s="84" t="n">
+        <v>30</v>
+      </c>
+      <c r="CW63" s="84" t="n">
+        <v>400</v>
+      </c>
+      <c r="CX63" s="84" t="n">
         <v>3000</v>
       </c>
       <c r="CY63" s="68"/>
@@ -52810,14 +52807,14 @@
       <c r="B64" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="79" t="n">
+      <c r="C64" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="78" t="n">
         <f aca="false">IF(OR(H64&lt;=1,I64&lt;=1)=1,0,IF(OR(H64&lt;2,I64&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D64" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F64" s="48"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="67" t="n">
         <f aca="false">COUNTIF(N64:HA64,1)+COUNTIF(N64:HA64,2)*0.5</f>
         <v>7.5</v>
@@ -52830,11 +52827,11 @@
         <f aca="false">COUNTIF(N64:HA64,1000)+COUNTIF(N64:HA64,2000)*0.5</f>
         <v>3.5</v>
       </c>
-      <c r="J64" s="48" t="str">
+      <c r="J64" s="47" t="str">
         <f aca="false">IF(K64=100,"AV",IF(K64=200,"AF",IF(K64=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K64" s="48" t="n">
+      <c r="K64" s="47" t="n">
         <f aca="false">IF(COUNTIF(N64:HA64,300)&gt;=1,300,IF(COUNTIF(N64:HA64,200)&gt;=1,200,IF(COUNTIF(N64:HA64,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -52895,25 +52892,25 @@
       <c r="AM64" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN64" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO64" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP64" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ64" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR64" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS64" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT64" s="82" t="n">
+      <c r="AN64" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO64" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP64" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ64" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR64" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS64" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT64" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU64" s="41" t="n">
@@ -53353,21 +53350,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="s">
         <v>249</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="79" t="n">
+      <c r="C65" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="78" t="n">
         <f aca="false">IF(OR(H65&lt;=1,I65&lt;=1)=1,0,IF(OR(H65&lt;2,I65&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D65" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="47" t="s">
         <v>251</v>
       </c>
       <c r="G65" s="67" t="n">
@@ -53382,11 +53379,11 @@
         <f aca="false">COUNTIF(N65:HA65,1000)+COUNTIF(N65:HA65,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J65" s="48" t="str">
+      <c r="J65" s="47" t="str">
         <f aca="false">IF(K65=100,"AV",IF(K65=200,"AF",IF(K65=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K65" s="48" t="n">
+      <c r="K65" s="47" t="n">
         <f aca="false">IF(COUNTIF(N65:HA65,300)&gt;=1,300,IF(COUNTIF(N65:HA65,200)&gt;=1,200,IF(COUNTIF(N65:HA65,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -53447,25 +53444,25 @@
       <c r="AM65" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN65" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO65" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP65" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ65" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR65" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS65" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT65" s="82" t="n">
+      <c r="AN65" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO65" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP65" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ65" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS65" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT65" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU65" s="41" t="n">
@@ -53912,14 +53909,14 @@
       <c r="B66" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="79" t="n">
+      <c r="C66" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="78" t="n">
         <f aca="false">IF(OR(H66&lt;=1,I66&lt;=1)=1,0,IF(OR(H66&lt;2,I66&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D66" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F66" s="48"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="67" t="n">
         <f aca="false">COUNTIF(N66:HA66,1)+COUNTIF(N66:HA66,2)*0.5</f>
         <v>2.5</v>
@@ -53932,11 +53929,11 @@
         <f aca="false">COUNTIF(N66:HA66,1000)+COUNTIF(N66:HA66,2000)*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="J66" s="48" t="str">
+      <c r="J66" s="47" t="str">
         <f aca="false">IF(K66=100,"AV",IF(K66=200,"AF",IF(K66=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K66" s="48" t="n">
+      <c r="K66" s="47" t="n">
         <f aca="false">IF(COUNTIF(N66:HA66,300)&gt;=1,300,IF(COUNTIF(N66:HA66,200)&gt;=1,200,IF(COUNTIF(N66:HA66,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -53997,25 +53994,25 @@
       <c r="AM66" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN66" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO66" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP66" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ66" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR66" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS66" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT66" s="82" t="n">
+      <c r="AN66" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO66" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP66" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ66" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS66" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT66" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU66" s="41" t="n">
@@ -54462,14 +54459,14 @@
       <c r="B67" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="79" t="n">
+      <c r="C67" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="78" t="n">
         <f aca="false">IF(OR(H67&lt;=1,I67&lt;=1)=1,0,IF(OR(H67&lt;2,I67&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D67" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" s="48"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="67" t="n">
         <f aca="false">COUNTIF(N67:HA67,1)+COUNTIF(N67:HA67,2)*0.5</f>
         <v>6.5</v>
@@ -54482,11 +54479,11 @@
         <f aca="false">COUNTIF(N67:HA67,1000)+COUNTIF(N67:HA67,2000)*0.5</f>
         <v>2</v>
       </c>
-      <c r="J67" s="48" t="str">
+      <c r="J67" s="47" t="str">
         <f aca="false">IF(K67=100,"AV",IF(K67=200,"AF",IF(K67=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K67" s="48" t="n">
+      <c r="K67" s="47" t="n">
         <f aca="false">IF(COUNTIF(N67:HA67,300)&gt;=1,300,IF(COUNTIF(N67:HA67,200)&gt;=1,200,IF(COUNTIF(N67:HA67,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -54547,25 +54544,25 @@
       <c r="AM67" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN67" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO67" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP67" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ67" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR67" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS67" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT67" s="82" t="n">
+      <c r="AN67" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO67" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP67" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ67" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS67" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT67" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU67" s="41" t="n">
@@ -55005,21 +55002,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="s">
         <v>256</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C68" s="79" t="n">
+      <c r="C68" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="78" t="n">
         <f aca="false">IF(OR(H68&lt;=1,I68&lt;=1)=1,0,IF(OR(H68&lt;2,I68&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D68" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="47" t="s">
         <v>258</v>
       </c>
       <c r="G68" s="67" t="n">
@@ -55034,11 +55031,11 @@
         <f aca="false">COUNTIF(N68:HA68,1000)+COUNTIF(N68:HA68,2000)*0.5</f>
         <v>2.5</v>
       </c>
-      <c r="J68" s="48" t="str">
+      <c r="J68" s="47" t="str">
         <f aca="false">IF(K68=100,"AV",IF(K68=200,"AF",IF(K68=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K68" s="48" t="n">
+      <c r="K68" s="47" t="n">
         <f aca="false">IF(COUNTIF(N68:HA68,300)&gt;=1,300,IF(COUNTIF(N68:HA68,200)&gt;=1,200,IF(COUNTIF(N68:HA68,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -55099,25 +55096,25 @@
       <c r="AM68" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN68" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO68" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP68" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ68" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR68" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS68" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT68" s="82" t="n">
+      <c r="AN68" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO68" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP68" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ68" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR68" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS68" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT68" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU68" s="41" t="n">
@@ -55564,14 +55561,14 @@
       <c r="B69" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C69" s="79" t="n">
+      <c r="C69" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D69" s="78" t="n">
         <f aca="false">IF(OR(H69&lt;=1,I69&lt;=1)=1,0,IF(OR(H69&lt;2,I69&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D69" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F69" s="48" t="s">
+      <c r="F69" s="47" t="s">
         <v>261</v>
       </c>
       <c r="G69" s="67" t="n">
@@ -55586,11 +55583,11 @@
         <f aca="false">COUNTIF(N69:HA69,1000)+COUNTIF(N69:HA69,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J69" s="48" t="str">
+      <c r="J69" s="47" t="str">
         <f aca="false">IF(K69=100,"AV",IF(K69=200,"AF",IF(K69=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K69" s="48" t="n">
+      <c r="K69" s="47" t="n">
         <f aca="false">IF(COUNTIF(N69:HA69,300)&gt;=1,300,IF(COUNTIF(N69:HA69,200)&gt;=1,200,IF(COUNTIF(N69:HA69,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -55651,25 +55648,25 @@
       <c r="AM69" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN69" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO69" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP69" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ69" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR69" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS69" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT69" s="82" t="n">
+      <c r="AN69" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO69" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP69" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ69" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR69" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS69" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT69" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU69" s="41" t="n">
@@ -56116,12 +56113,12 @@
       <c r="B70" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C70" s="79" t="n">
+      <c r="C70" s="47"/>
+      <c r="D70" s="78" t="n">
         <f aca="false">IF(OR(H70&lt;=1,I70&lt;=1)=1,0,IF(OR(H70&lt;2,I70&lt;2)=1,1,2))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="48"/>
-      <c r="F70" s="48"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="67" t="n">
         <f aca="false">COUNTIF(N70:HA70,1)+COUNTIF(N70:HA70,2)*0.5</f>
         <v>4</v>
@@ -56134,11 +56131,11 @@
         <f aca="false">COUNTIF(N70:HA70,1000)+COUNTIF(N70:HA70,2000)*0.5</f>
         <v>1</v>
       </c>
-      <c r="J70" s="48" t="str">
+      <c r="J70" s="47" t="str">
         <f aca="false">IF(K70=100,"AV",IF(K70=200,"AF",IF(K70=300,"SF",0)))</f>
         <v>AV</v>
       </c>
-      <c r="K70" s="48" t="n">
+      <c r="K70" s="47" t="n">
         <f aca="false">IF(COUNTIF(N70:HA70,300)&gt;=1,300,IF(COUNTIF(N70:HA70,200)&gt;=1,200,IF(COUNTIF(N70:HA70,100)&gt;=1,100,0)))</f>
         <v>100</v>
       </c>
@@ -56199,25 +56196,25 @@
       <c r="AM70" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN70" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO70" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP70" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ70" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR70" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS70" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT70" s="82" t="n">
+      <c r="AN70" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO70" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP70" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ70" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR70" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS70" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT70" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU70" s="41" t="n">
@@ -56664,14 +56661,14 @@
       <c r="B71" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C71" s="79" t="n">
+      <c r="C71" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D71" s="78" t="n">
         <f aca="false">IF(OR(H71&lt;=1,I71&lt;=1)=1,0,IF(OR(H71&lt;2,I71&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D71" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F71" s="48" t="s">
+      <c r="F71" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G71" s="67" t="n">
@@ -56686,11 +56683,11 @@
         <f aca="false">COUNTIF(N71:HA71,1000)+COUNTIF(N71:HA71,2000)*0.5</f>
         <v>6.5</v>
       </c>
-      <c r="J71" s="48" t="str">
+      <c r="J71" s="47" t="str">
         <f aca="false">IF(K71=100,"AV",IF(K71=200,"AF",IF(K71=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K71" s="48" t="n">
+      <c r="K71" s="47" t="n">
         <f aca="false">IF(COUNTIF(N71:HA71,300)&gt;=1,300,IF(COUNTIF(N71:HA71,200)&gt;=1,200,IF(COUNTIF(N71:HA71,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -56751,25 +56748,25 @@
       <c r="AM71" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN71" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO71" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP71" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ71" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR71" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS71" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT71" s="82" t="n">
+      <c r="AN71" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO71" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP71" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ71" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS71" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT71" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU71" s="41" t="n">
@@ -57209,21 +57206,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="s">
         <v>266</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="79" t="n">
+      <c r="C72" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="78" t="n">
         <f aca="false">IF(OR(H72&lt;=1,I72&lt;=1)=1,0,IF(OR(H72&lt;2,I72&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D72" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="48" t="s">
+      <c r="F72" s="47" t="s">
         <v>127</v>
       </c>
       <c r="G72" s="67" t="n">
@@ -57238,11 +57235,11 @@
         <f aca="false">COUNTIF(N72:HA72,1000)+COUNTIF(N72:HA72,2000)*0.5</f>
         <v>5</v>
       </c>
-      <c r="J72" s="48" t="str">
+      <c r="J72" s="47" t="str">
         <f aca="false">IF(K72=100,"AV",IF(K72=200,"AF",IF(K72=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K72" s="48" t="n">
+      <c r="K72" s="47" t="n">
         <f aca="false">IF(COUNTIF(N72:HA72,300)&gt;=1,300,IF(COUNTIF(N72:HA72,200)&gt;=1,200,IF(COUNTIF(N72:HA72,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -57303,25 +57300,25 @@
       <c r="AM72" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN72" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO72" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP72" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ72" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR72" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS72" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT72" s="82" t="n">
+      <c r="AN72" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO72" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP72" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ72" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR72" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS72" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT72" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU72" s="41" t="n">
@@ -57761,22 +57758,22 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="73" s="71" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="71" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="60" t="s">
         <v>268</v>
       </c>
       <c r="B73" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="C73" s="79"/>
-      <c r="D73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="78"/>
       <c r="E73" s="0"/>
       <c r="F73" s="69"/>
       <c r="G73" s="67"/>
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
-      <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
       <c r="L73" s="67"/>
       <c r="M73" s="67"/>
       <c r="N73" s="61"/>
@@ -57792,130 +57789,130 @@
       <c r="R73" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="V73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" s="82"/>
-      <c r="X73" s="82"/>
-      <c r="Y73" s="82"/>
-      <c r="Z73" s="82"/>
-      <c r="AA73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" s="82"/>
-      <c r="AF73" s="82"/>
-      <c r="AG73" s="82"/>
-      <c r="AH73" s="82"/>
-      <c r="AI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC73" s="82"/>
-      <c r="BD73" s="82"/>
-      <c r="BE73" s="82"/>
-      <c r="BF73" s="82"/>
-      <c r="BG73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO73" s="82"/>
-      <c r="BP73" s="82"/>
-      <c r="BQ73" s="82"/>
-      <c r="BR73" s="82"/>
+      <c r="S73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" s="81"/>
+      <c r="X73" s="81"/>
+      <c r="Y73" s="81"/>
+      <c r="Z73" s="81"/>
+      <c r="AA73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="81"/>
+      <c r="AF73" s="81"/>
+      <c r="AG73" s="81"/>
+      <c r="AH73" s="81"/>
+      <c r="AI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="81"/>
+      <c r="BD73" s="81"/>
+      <c r="BE73" s="81"/>
+      <c r="BF73" s="81"/>
+      <c r="BG73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO73" s="81"/>
+      <c r="BP73" s="81"/>
+      <c r="BQ73" s="81"/>
+      <c r="BR73" s="81"/>
       <c r="BS73" s="70" t="n">
         <v>0</v>
       </c>
@@ -57928,232 +57925,232 @@
       <c r="BV73" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="BW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA73" s="82"/>
-      <c r="CB73" s="82"/>
-      <c r="CC73" s="82"/>
-      <c r="CD73" s="82"/>
-      <c r="CE73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX73" s="82" t="n">
+      <c r="BW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA73" s="81"/>
+      <c r="CB73" s="81"/>
+      <c r="CC73" s="81"/>
+      <c r="CD73" s="81"/>
+      <c r="CE73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX73" s="81" t="n">
         <v>0</v>
       </c>
       <c r="CY73" s="70"/>
       <c r="CZ73" s="70"/>
       <c r="DA73" s="70"/>
       <c r="DB73" s="70"/>
-      <c r="DC73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE73" s="82"/>
-      <c r="EF73" s="82"/>
-      <c r="EG73" s="82"/>
-      <c r="EH73" s="82"/>
-      <c r="EI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB73" s="82" t="n">
+      <c r="DC73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE73" s="81"/>
+      <c r="EF73" s="81"/>
+      <c r="EG73" s="81"/>
+      <c r="EH73" s="81"/>
+      <c r="EI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB73" s="81" t="n">
         <v>0</v>
       </c>
       <c r="FC73" s="70" t="n">
@@ -58168,173 +58165,173 @@
       <c r="FF73" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="FG73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY73" s="82"/>
-      <c r="GZ73" s="82"/>
-      <c r="HA73" s="82"/>
-      <c r="HB73" s="82"/>
-      <c r="HC73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE73" s="82" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF73" s="82" t="n">
+      <c r="FG73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY73" s="81"/>
+      <c r="GZ73" s="81"/>
+      <c r="HA73" s="81"/>
+      <c r="HB73" s="81"/>
+      <c r="HC73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE73" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF73" s="81" t="n">
         <v>0</v>
       </c>
       <c r="AMH73" s="0"/>
       <c r="AMI73" s="0"/>
       <c r="AMJ73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="14" t="s">
         <v>270</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C74" s="79" t="n">
+      <c r="C74" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="78" t="n">
         <f aca="false">IF(OR(H74&lt;=1,I74&lt;=1)=1,0,IF(OR(H74&lt;2,I74&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D74" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F74" s="48" t="s">
+      <c r="F74" s="47" t="s">
         <v>272</v>
       </c>
       <c r="G74" s="67" t="n">
@@ -58349,11 +58346,11 @@
         <f aca="false">COUNTIF(N74:HA74,1000)+COUNTIF(N74:HA74,2000)*0.5</f>
         <v>2</v>
       </c>
-      <c r="J74" s="48" t="str">
+      <c r="J74" s="47" t="str">
         <f aca="false">IF(K74=100,"AV",IF(K74=200,"AF",IF(K74=300,"SF",0)))</f>
         <v>SF</v>
       </c>
-      <c r="K74" s="48" t="n">
+      <c r="K74" s="47" t="n">
         <f aca="false">IF(COUNTIF(N74:HA74,300)&gt;=1,300,IF(COUNTIF(N74:HA74,200)&gt;=1,200,IF(COUNTIF(N74:HA74,100)&gt;=1,100,0)))</f>
         <v>300</v>
       </c>
@@ -58414,25 +58411,25 @@
       <c r="AM74" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN74" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO74" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP74" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ74" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR74" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS74" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT74" s="82" t="n">
+      <c r="AN74" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO74" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP74" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ74" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR74" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS74" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT74" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU74" s="41" t="n">
@@ -58555,16 +58552,16 @@
       <c r="CT74" s="41" t="n">
         <v>3000</v>
       </c>
-      <c r="CU74" s="86" t="n">
+      <c r="CU74" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="CV74" s="86" t="n">
+      <c r="CV74" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="CW74" s="86" t="n">
+      <c r="CW74" s="85" t="n">
         <v>200</v>
       </c>
-      <c r="CX74" s="86" t="n">
+      <c r="CX74" s="85" t="n">
         <v>2000</v>
       </c>
       <c r="CY74" s="68"/>
@@ -58872,21 +58869,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="s">
         <v>273</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C75" s="79" t="n">
+      <c r="C75" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="78" t="n">
         <f aca="false">IF(OR(H75&lt;=1,I75&lt;=1)=1,0,IF(OR(H75&lt;2,I75&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D75" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F75" s="48" t="s">
+      <c r="F75" s="47" t="s">
         <v>272</v>
       </c>
       <c r="G75" s="67" t="n">
@@ -58901,11 +58898,11 @@
         <f aca="false">COUNTIF(N75:HA75,1000)+COUNTIF(N75:HA75,2000)*0.5</f>
         <v>4</v>
       </c>
-      <c r="J75" s="48" t="str">
+      <c r="J75" s="47" t="str">
         <f aca="false">IF(K75=100,"AV",IF(K75=200,"AF",IF(K75=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K75" s="48" t="n">
+      <c r="K75" s="47" t="n">
         <f aca="false">IF(COUNTIF(N75:HA75,300)&gt;=1,300,IF(COUNTIF(N75:HA75,200)&gt;=1,200,IF(COUNTIF(N75:HA75,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -58966,25 +58963,25 @@
       <c r="AM75" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="AN75" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO75" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP75" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ75" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR75" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS75" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT75" s="82" t="n">
+      <c r="AN75" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO75" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP75" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ75" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR75" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS75" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT75" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU75" s="41" t="n">
@@ -59424,21 +59421,21 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="41.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="s">
         <v>275</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="79" t="n">
+      <c r="C76" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="78" t="n">
         <f aca="false">IF(OR(H76&lt;=1,I76&lt;=1)=1,0,IF(OR(H76&lt;2,I76&lt;2)=1,1,2))</f>
         <v>2</v>
       </c>
-      <c r="D76" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="47" t="s">
         <v>277</v>
       </c>
       <c r="G76" s="67" t="n">
@@ -59453,11 +59450,11 @@
         <f aca="false">COUNTIF(N76:HA76,1000)+COUNTIF(N76:HA76,2000)*0.5</f>
         <v>3</v>
       </c>
-      <c r="J76" s="48" t="str">
+      <c r="J76" s="47" t="str">
         <f aca="false">IF(K76=100,"AV",IF(K76=200,"AF",IF(K76=300,"SF",0)))</f>
         <v>AF</v>
       </c>
-      <c r="K76" s="48" t="n">
+      <c r="K76" s="47" t="n">
         <f aca="false">IF(COUNTIF(N76:HA76,300)&gt;=1,300,IF(COUNTIF(N76:HA76,200)&gt;=1,200,IF(COUNTIF(N76:HA76,100)&gt;=1,100,0)))</f>
         <v>200</v>
       </c>
@@ -59518,25 +59515,25 @@
       <c r="AM76" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="AN76" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO76" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AP76" s="82" t="n">
-        <v>3000</v>
-      </c>
-      <c r="AQ76" s="82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR76" s="82" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS76" s="82" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT76" s="82" t="n">
+      <c r="AN76" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO76" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AP76" s="81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AQ76" s="81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR76" s="81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS76" s="81" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT76" s="81" t="n">
         <v>3000</v>
       </c>
       <c r="AU76" s="41" t="n">
@@ -59976,226 +59973,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="58">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="O1:R2"/>
     <mergeCell ref="S1:V2"/>
     <mergeCell ref="W1:Z2"/>
@@ -60247,7 +60028,7 @@
     <mergeCell ref="GY1:HB2"/>
     <mergeCell ref="HC1:HF2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="O27:R27"/>
     <mergeCell ref="BS27:BV27"/>
     <mergeCell ref="CY27:DB27"/>
@@ -66022,7 +65803,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CE4E321C-DC85-482E-9953-E4C82E2C9AA6}</x14:id>
+          <x14:id>{BA648D64-33BD-4DE0-86A3-A2BBBB40C522}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -66036,7 +65817,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E429243F-2466-49E1-8116-347CB526BECA}</x14:id>
+          <x14:id>{30156E5D-B462-4FE4-AA24-2A30234280C9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -66050,12 +65831,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1AFA3B25-D253-4AA0-8365-D64FC7B138C1}</x14:id>
+          <x14:id>{B340ADEA-C349-43F1-8260-949B3BA124FF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="iconSet" priority="1497">
       <iconSet iconSet="3TrafficLights1" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -66075,7 +65856,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CE4E321C-DC85-482E-9953-E4C82E2C9AA6}">
+          <x14:cfRule type="dataBar" id="{BA648D64-33BD-4DE0-86A3-A2BBBB40C522}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66086,7 +65867,7 @@
           <xm:sqref>G:G</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E429243F-2466-49E1-8116-347CB526BECA}">
+          <x14:cfRule type="dataBar" id="{30156E5D-B462-4FE4-AA24-2A30234280C9}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66097,7 +65878,7 @@
           <xm:sqref>H:H</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1AFA3B25-D253-4AA0-8365-D64FC7B138C1}">
+          <x14:cfRule type="dataBar" id="{B340ADEA-C349-43F1-8260-949B3BA124FF}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -66108,7 +65889,7 @@
           <xm:sqref>I:I</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1497" id="{9D43BB8B-7849-48F1-9F63-CED0792D89B0}">
+          <x14:cfRule type="iconSet" priority="1497" id="{A7A8EC9C-9C52-4FE6-9B8B-74338878B1AE}">
             <x14:iconSet iconSet="3Triangles" custom="1" reverse="0" showValue="0">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
